--- a/spp_interaction_exp/data_raw/Species interaction data.xlsx
+++ b/spp_interaction_exp/data_raw/Species interaction data.xlsx
@@ -39,40 +39,12 @@
 2.94 g/cm3 is density of aragonite</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J269">
-      <text>
-        <t xml:space="preserve">@grenaudb@gmail.com this must have been supposed to be a 9...?
-	-Molly Wilson</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A340">
-      <text>
-        <t xml:space="preserve">Hey @moniquebigler@gmail.com I think these frags are repeats of each other no? is something missing in its place?
-_Assigned to moniquebigler@gmail.com_
-	-Molly Wilson
-@mwattswilson@gmail.com They don't seem to be a mistake from my end with the data transcription. I looked back over the scroll. Maybe it got re-weighed by accident or one of the groups was supposed to be 24.1 and 24.2??
-	-Monique Bigler
-Hmm ok @grenaudb@gmail.com lmk if you remember any reason why these would have been duplicated, otherwise I will continue with my detective work!
-_Reassigned to grenaudb@gmail.com_
-	-Molly Wilson
-They are so close in weight I'm just going to assume they were duplicated unless you think otherwise @grenaudb@gmail.com .... sorry next time I will make whoever is scribing write out the potential combos as we had done before to make this cleaner! Or print the datasheets that we never ended up using lol!
-	-Molly Wilson</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A259">
-      <text>
-        <t xml:space="preserve">From the scroll data it had the same ID however I believe one may be 25.2 @mwattswilson@gmail.com
-	-Monique Bigler
-Yes I believe so based on the prior weights as well - @grenaudb@gmail.com lmk if you think otherwise or I will adjust the dead one to be 25.2
-	-Molly Wilson</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -185,7 +157,7 @@
     <t>Adjusted from original by +0.95g</t>
   </si>
   <si>
-    <t>C2F24.2</t>
+    <t>T2F24.2</t>
   </si>
   <si>
     <t>Replacement</t>
@@ -368,6 +340,9 @@
     <t>C2F24.1</t>
   </si>
   <si>
+    <t>C2F24.2</t>
+  </si>
+  <si>
     <t>C2F25.1</t>
   </si>
   <si>
@@ -548,9 +523,6 @@
     <t>T2F24.1</t>
   </si>
   <si>
-    <t>T2F24.2</t>
-  </si>
-  <si>
     <t>T2F25.1</t>
   </si>
   <si>
@@ -675,12 +647,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -715,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -762,12 +740,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -775,10 +747,23 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -13578,6 +13563,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.75"/>
+    <col hidden="1" min="2" max="5" width="12.63"/>
     <col customWidth="1" min="7" max="9" width="15.5"/>
     <col customWidth="1" min="10" max="10" width="15.25"/>
   </cols>
@@ -13688,15 +13674,15 @@
         <v>1023.45</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N350" si="2">H2/(1-M2/1000/2.94)</f>
+        <f t="shared" ref="N2:N348" si="2">H2/(1-M2/1000/2.94)</f>
         <v>16.78203021</v>
       </c>
       <c r="O2" s="10">
-        <f t="shared" ref="O2:O350" si="3">I2/(1-M2/1000/2.94)</f>
+        <f t="shared" ref="O2:O348" si="3">I2/(1-M2/1000/2.94)</f>
         <v>14.06683885</v>
       </c>
       <c r="P2" s="10">
-        <f t="shared" ref="P2:P350" si="4">J2/(1-M2/1000/2.94)</f>
+        <f t="shared" ref="P2:P348" si="4">J2/(1-M2/1000/2.94)</f>
         <v>14.92588245</v>
       </c>
       <c r="Q2" s="11"/>
@@ -15528,12 +15514,6 @@
       <c r="H34" s="15">
         <v>5.19</v>
       </c>
-      <c r="I34" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0.95</v>
-      </c>
       <c r="K34" s="11">
         <v>36.1</v>
       </c>
@@ -15549,11 +15529,11 @@
       </c>
       <c r="O34" s="10">
         <f t="shared" si="3"/>
-        <v>1.457306097</v>
+        <v>0</v>
       </c>
       <c r="P34" s="10">
         <f t="shared" si="4"/>
-        <v>1.457306097</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11" t="s">
@@ -15589,9 +15569,6 @@
       <c r="I35" s="15">
         <v>14.719999999999999</v>
       </c>
-      <c r="J35" s="10">
-        <v>0.95</v>
-      </c>
       <c r="K35" s="11">
         <v>36.1</v>
       </c>
@@ -15611,7 +15588,7 @@
       </c>
       <c r="P35" s="10">
         <f t="shared" si="4"/>
-        <v>1.457306097</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11" t="s">
@@ -15647,9 +15624,6 @@
       <c r="I36" s="15">
         <v>4.83</v>
       </c>
-      <c r="J36" s="10">
-        <v>0.95</v>
-      </c>
       <c r="K36" s="11">
         <v>36.1</v>
       </c>
@@ -15669,7 +15643,7 @@
       </c>
       <c r="P36" s="10">
         <f t="shared" si="4"/>
-        <v>1.457306097</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11" t="s">
@@ -20471,7 +20445,7 @@
         <v>37</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C124" s="11" t="str">
         <f>VLOOKUP(A124, Datasheet!$A$1:$I$129, 3, FALSE)</f>
@@ -22789,59 +22763,69 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B166" s="10" t="str">
+      <c r="B166" s="19" t="str">
         <f>VLOOKUP(A166, Datasheet!$A$1:$I$129, 2, FALSE)</f>
         <v>C2</v>
       </c>
-      <c r="C166" s="10" t="str">
+      <c r="C166" s="19" t="str">
         <f>VLOOKUP(A166, Datasheet!$A$1:$I$129, 3, FALSE)</f>
         <v>B</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="18">
         <v>24.0</v>
       </c>
-      <c r="E166" s="12" t="s">
+      <c r="E166" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F166" s="16">
+      <c r="F166" s="21">
         <v>45814.0</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="G166" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H166" s="11">
+      <c r="H166" s="18">
         <v>9.89</v>
       </c>
-      <c r="I166" s="11">
+      <c r="I166" s="18">
         <v>9.96</v>
       </c>
-      <c r="J166" s="11">
+      <c r="J166" s="18">
         <v>9.99</v>
       </c>
-      <c r="K166" s="11">
+      <c r="K166" s="18">
         <v>35.4</v>
       </c>
-      <c r="L166" s="11">
+      <c r="L166" s="18">
         <v>29.6</v>
       </c>
-      <c r="M166" s="11">
+      <c r="M166" s="18">
         <v>1022.16</v>
       </c>
-      <c r="N166" s="10">
+      <c r="N166" s="19">
         <f t="shared" si="2"/>
         <v>15.16111876</v>
       </c>
-      <c r="O166" s="10">
+      <c r="O166" s="19">
         <f t="shared" si="3"/>
         <v>15.26842698</v>
       </c>
-      <c r="P166" s="10">
+      <c r="P166" s="19">
         <f t="shared" si="4"/>
         <v>15.31441622</v>
       </c>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
     </row>
     <row r="167">
       <c r="A167" s="11" t="s">
@@ -23657,7 +23641,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="23" t="s">
         <v>97</v>
       </c>
       <c r="B182" s="10" t="str">
@@ -23712,8 +23696,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="18" t="s">
-        <v>37</v>
+      <c r="A183" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="B183" s="10" t="str">
         <f>VLOOKUP(A183, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -23767,8 +23751,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="18" t="s">
-        <v>98</v>
+      <c r="A184" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="B184" s="10" t="str">
         <f>VLOOKUP(A184, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -23822,8 +23806,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="18" t="s">
-        <v>99</v>
+      <c r="A185" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="B185" s="10" t="str">
         <f>VLOOKUP(A185, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -23877,8 +23861,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="18" t="s">
-        <v>100</v>
+      <c r="A186" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="B186" s="10" t="str">
         <f>VLOOKUP(A186, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -23932,8 +23916,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="18" t="s">
-        <v>101</v>
+      <c r="A187" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="B187" s="10" t="str">
         <f>VLOOKUP(A187, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -23987,8 +23971,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="18" t="s">
-        <v>102</v>
+      <c r="A188" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="B188" s="10" t="str">
         <f>VLOOKUP(A188, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24042,8 +24026,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="18" t="s">
-        <v>103</v>
+      <c r="A189" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="B189" s="10" t="str">
         <f>VLOOKUP(A189, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24091,8 +24075,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="18" t="s">
-        <v>104</v>
+      <c r="A190" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="B190" s="10" t="str">
         <f>VLOOKUP(A190, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24146,8 +24130,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="18" t="s">
-        <v>105</v>
+      <c r="A191" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B191" s="10" t="str">
         <f>VLOOKUP(A191, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24201,8 +24185,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="18" t="s">
-        <v>106</v>
+      <c r="A192" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B192" s="10" t="str">
         <f>VLOOKUP(A192, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24256,8 +24240,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="19" t="s">
-        <v>107</v>
+      <c r="A193" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="B193" s="10" t="str">
         <f>VLOOKUP(A193, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24312,7 +24296,7 @@
     </row>
     <row r="194">
       <c r="A194" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>10</v>
@@ -24366,7 +24350,7 @@
     </row>
     <row r="195">
       <c r="A195" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>10</v>
@@ -24420,7 +24404,7 @@
     </row>
     <row r="196">
       <c r="A196" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
@@ -24474,7 +24458,7 @@
     </row>
     <row r="197">
       <c r="A197" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
@@ -24582,7 +24566,7 @@
     </row>
     <row r="199">
       <c r="A199" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
@@ -24636,7 +24620,7 @@
     </row>
     <row r="200">
       <c r="A200" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
@@ -24690,7 +24674,7 @@
     </row>
     <row r="201">
       <c r="A201" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B201" s="11" t="str">
         <f>VLOOKUP(A201, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24745,7 +24729,7 @@
     </row>
     <row r="202">
       <c r="A202" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B202" s="11" t="str">
         <f>VLOOKUP(A202, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24765,7 +24749,7 @@
         <v>45814.0</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
@@ -24794,7 +24778,7 @@
     </row>
     <row r="203">
       <c r="A203" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B203" s="11" t="str">
         <f>VLOOKUP(A203, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24849,7 +24833,7 @@
     </row>
     <row r="204">
       <c r="A204" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B204" s="11" t="str">
         <f>VLOOKUP(A204, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24904,7 +24888,7 @@
     </row>
     <row r="205">
       <c r="A205" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B205" s="11" t="str">
         <f>VLOOKUP(A205, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -24959,7 +24943,7 @@
     </row>
     <row r="206">
       <c r="A206" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B206" s="11" t="str">
         <f>VLOOKUP(A206, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25014,7 +24998,7 @@
     </row>
     <row r="207">
       <c r="A207" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B207" s="11" t="str">
         <f>VLOOKUP(A207, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25066,7 +25050,7 @@
     </row>
     <row r="208">
       <c r="A208" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B208" s="11" t="str">
         <f>VLOOKUP(A208, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25121,7 +25105,7 @@
     </row>
     <row r="209">
       <c r="A209" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B209" s="11" t="str">
         <f>VLOOKUP(A209, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25176,7 +25160,7 @@
     </row>
     <row r="210">
       <c r="A210" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B210" s="11" t="str">
         <f>VLOOKUP(A210, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25231,7 +25215,7 @@
     </row>
     <row r="211">
       <c r="A211" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B211" s="11" t="str">
         <f>VLOOKUP(A211, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25286,7 +25270,7 @@
     </row>
     <row r="212">
       <c r="A212" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B212" s="11" t="str">
         <f>VLOOKUP(A212, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25341,7 +25325,7 @@
     </row>
     <row r="213">
       <c r="A213" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B213" s="11" t="str">
         <f>VLOOKUP(A213, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25396,7 +25380,7 @@
     </row>
     <row r="214">
       <c r="A214" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B214" s="11" t="str">
         <f>VLOOKUP(A214, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25451,7 +25435,7 @@
     </row>
     <row r="215">
       <c r="A215" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B215" s="11" t="str">
         <f>VLOOKUP(A215, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25500,7 +25484,7 @@
     </row>
     <row r="216">
       <c r="A216" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B216" s="11" t="str">
         <f>VLOOKUP(A216, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25555,7 +25539,7 @@
     </row>
     <row r="217">
       <c r="A217" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B217" s="11" t="str">
         <f>VLOOKUP(A217, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25610,7 +25594,7 @@
     </row>
     <row r="218">
       <c r="A218" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B218" s="11" t="str">
         <f>VLOOKUP(A218, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25665,7 +25649,7 @@
     </row>
     <row r="219">
       <c r="A219" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B219" s="11" t="str">
         <f>VLOOKUP(A219, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25720,7 +25704,7 @@
     </row>
     <row r="220">
       <c r="A220" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B220" s="11" t="str">
         <f>VLOOKUP(A220, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25775,7 +25759,7 @@
     </row>
     <row r="221">
       <c r="A221" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B221" s="11" t="str">
         <f>VLOOKUP(A221, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25830,7 +25814,7 @@
     </row>
     <row r="222">
       <c r="A222" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B222" s="11" t="str">
         <f>VLOOKUP(A222, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25940,7 +25924,7 @@
     </row>
     <row r="224">
       <c r="A224" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B224" s="11" t="str">
         <f>VLOOKUP(A224, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -25995,7 +25979,7 @@
     </row>
     <row r="225">
       <c r="A225" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B225" s="11" t="str">
         <f>VLOOKUP(A225, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26105,7 +26089,7 @@
     </row>
     <row r="227">
       <c r="A227" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B227" s="10" t="str">
         <f>VLOOKUP(A227, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26160,7 +26144,7 @@
     </row>
     <row r="228">
       <c r="A228" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B228" s="10" t="str">
         <f>VLOOKUP(A228, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26215,7 +26199,7 @@
     </row>
     <row r="229">
       <c r="A229" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B229" s="10" t="str">
         <f>VLOOKUP(A229, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26270,7 +26254,7 @@
     </row>
     <row r="230">
       <c r="A230" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B230" s="10" t="str">
         <f>VLOOKUP(A230, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26325,7 +26309,7 @@
     </row>
     <row r="231">
       <c r="A231" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B231" s="10" t="str">
         <f>VLOOKUP(A231, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26380,7 +26364,7 @@
     </row>
     <row r="232">
       <c r="A232" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B232" s="10" t="str">
         <f>VLOOKUP(A232, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26435,7 +26419,7 @@
     </row>
     <row r="233">
       <c r="A233" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B233" s="10" t="str">
         <f>VLOOKUP(A233, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26490,7 +26474,7 @@
     </row>
     <row r="234">
       <c r="A234" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B234" s="10" t="str">
         <f>VLOOKUP(A234, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26600,7 +26584,7 @@
     </row>
     <row r="236">
       <c r="A236" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B236" s="10" t="str">
         <f>VLOOKUP(A236, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26655,7 +26639,7 @@
     </row>
     <row r="237">
       <c r="A237" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B237" s="10" t="str">
         <f>VLOOKUP(A237, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26710,7 +26694,7 @@
     </row>
     <row r="238">
       <c r="A238" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B238" s="10" t="str">
         <f>VLOOKUP(A238, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26765,7 +26749,7 @@
     </row>
     <row r="239">
       <c r="A239" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B239" s="10" t="str">
         <f>VLOOKUP(A239, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26820,7 +26804,7 @@
     </row>
     <row r="240">
       <c r="A240" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B240" s="10" t="str">
         <f>VLOOKUP(A240, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26875,7 +26859,7 @@
     </row>
     <row r="241">
       <c r="A241" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B241" s="10" t="str">
         <f>VLOOKUP(A241, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26930,7 +26914,7 @@
     </row>
     <row r="242">
       <c r="A242" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B242" s="10" t="str">
         <f>VLOOKUP(A242, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -26985,7 +26969,7 @@
     </row>
     <row r="243">
       <c r="A243" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B243" s="10" t="str">
         <f>VLOOKUP(A243, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -27040,7 +27024,7 @@
     </row>
     <row r="244">
       <c r="A244" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B244" s="10" t="str">
         <f>VLOOKUP(A244, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -27095,7 +27079,7 @@
     </row>
     <row r="245">
       <c r="A245" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B245" s="10" t="str">
         <f>VLOOKUP(A245, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -27150,7 +27134,7 @@
     </row>
     <row r="246">
       <c r="A246" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B246" s="10" t="str">
         <f>VLOOKUP(A246, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -27205,7 +27189,7 @@
     </row>
     <row r="247">
       <c r="A247" s="11" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="B247" s="10" t="str">
         <f>VLOOKUP(A247, Datasheet!$A$1:$I$129, 2, FALSE)</f>
@@ -27851,26 +27835,23 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="22"/>
+      <c r="E259" s="12"/>
       <c r="F259" s="13">
         <v>45930.0</v>
       </c>
       <c r="G259" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H259" s="20">
+      <c r="H259" s="11">
         <v>5.62</v>
       </c>
-      <c r="I259" s="20">
+      <c r="I259" s="11">
         <v>5.72</v>
       </c>
-      <c r="J259" s="20">
+      <c r="J259" s="11">
         <v>5.89</v>
       </c>
       <c r="K259" s="11">
@@ -27894,26 +27875,18 @@
         <f t="shared" si="4"/>
         <v>9.011693563</v>
       </c>
-      <c r="Q259" s="21"/>
-      <c r="R259" s="21"/>
     </row>
     <row r="260">
-      <c r="A260" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="22"/>
+      <c r="A260" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E260" s="12"/>
       <c r="F260" s="13">
         <v>45930.0</v>
       </c>
       <c r="G260" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
       <c r="K260" s="11">
         <v>30.6</v>
       </c>
@@ -27935,8 +27908,6 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q260" s="21"/>
-      <c r="R260" s="21"/>
     </row>
     <row r="261">
       <c r="A261" s="11" t="s">
@@ -28264,8 +28235,8 @@
       <c r="I269" s="11">
         <v>9.49</v>
       </c>
-      <c r="J269" s="20">
-        <v>2.28</v>
+      <c r="J269" s="11">
+        <v>9.28</v>
       </c>
       <c r="K269" s="11">
         <v>30.6</v>
@@ -28286,7 +28257,7 @@
       </c>
       <c r="P269" s="10">
         <f t="shared" si="4"/>
-        <v>3.488397508</v>
+        <v>14.19838986</v>
       </c>
     </row>
     <row r="270">
@@ -28471,14 +28442,14 @@
         <f t="shared" si="4"/>
         <v>18.49768679</v>
       </c>
-      <c r="S274" s="21"/>
-      <c r="T274" s="21"/>
-      <c r="U274" s="21"/>
-      <c r="V274" s="21"/>
-      <c r="W274" s="21"/>
-      <c r="X274" s="21"/>
-      <c r="Y274" s="21"/>
-      <c r="Z274" s="21"/>
+      <c r="S274" s="25"/>
+      <c r="T274" s="25"/>
+      <c r="U274" s="25"/>
+      <c r="V274" s="25"/>
+      <c r="W274" s="25"/>
+      <c r="X274" s="25"/>
+      <c r="Y274" s="25"/>
+      <c r="Z274" s="25"/>
     </row>
     <row r="275">
       <c r="A275" s="11" t="s">
@@ -28524,14 +28495,14 @@
       <c r="Q275" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="S275" s="21"/>
-      <c r="T275" s="21"/>
-      <c r="U275" s="21"/>
-      <c r="V275" s="21"/>
-      <c r="W275" s="21"/>
-      <c r="X275" s="21"/>
-      <c r="Y275" s="21"/>
-      <c r="Z275" s="21"/>
+      <c r="S275" s="25"/>
+      <c r="T275" s="25"/>
+      <c r="U275" s="25"/>
+      <c r="V275" s="25"/>
+      <c r="W275" s="25"/>
+      <c r="X275" s="25"/>
+      <c r="Y275" s="25"/>
+      <c r="Z275" s="25"/>
     </row>
     <row r="276">
       <c r="A276" s="11" t="s">
@@ -29360,7 +29331,7 @@
     </row>
     <row r="296">
       <c r="A296" s="11" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E296" s="12"/>
       <c r="F296" s="13">
@@ -29402,7 +29373,7 @@
     </row>
     <row r="297">
       <c r="A297" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E297" s="12"/>
       <c r="F297" s="13">
@@ -29444,7 +29415,7 @@
     </row>
     <row r="298">
       <c r="A298" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E298" s="12"/>
       <c r="F298" s="13">
@@ -29486,7 +29457,7 @@
     </row>
     <row r="299">
       <c r="A299" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E299" s="12"/>
       <c r="F299" s="13">
@@ -29528,7 +29499,7 @@
     </row>
     <row r="300">
       <c r="A300" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E300" s="12"/>
       <c r="F300" s="13">
@@ -29570,7 +29541,7 @@
     </row>
     <row r="301">
       <c r="A301" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E301" s="12"/>
       <c r="F301" s="13">
@@ -29612,7 +29583,7 @@
     </row>
     <row r="302">
       <c r="A302" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E302" s="12"/>
       <c r="F302" s="13">
@@ -29654,7 +29625,7 @@
     </row>
     <row r="303">
       <c r="A303" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E303" s="12"/>
       <c r="F303" s="13">
@@ -29696,7 +29667,7 @@
     </row>
     <row r="304">
       <c r="A304" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E304" s="12"/>
       <c r="F304" s="13">
@@ -29738,7 +29709,7 @@
     </row>
     <row r="305">
       <c r="A305" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F305" s="13">
         <v>45930.0</v>
@@ -29779,7 +29750,7 @@
     </row>
     <row r="306">
       <c r="A306" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F306" s="13">
         <v>45930.0</v>
@@ -29852,7 +29823,7 @@
     </row>
     <row r="308">
       <c r="A308" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F308" s="13">
         <v>45930.0</v>
@@ -29893,7 +29864,7 @@
     </row>
     <row r="309">
       <c r="A309" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F309" s="13">
         <v>45930.0</v>
@@ -29934,7 +29905,7 @@
     </row>
     <row r="310">
       <c r="A310" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F310" s="13">
         <v>45930.0</v>
@@ -29975,7 +29946,7 @@
     </row>
     <row r="311">
       <c r="A311" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F311" s="13">
         <v>45930.0</v>
@@ -30013,18 +29984,18 @@
         <f t="shared" si="4"/>
         <v>20.27364608</v>
       </c>
-      <c r="S311" s="23"/>
-      <c r="T311" s="24"/>
-      <c r="U311" s="24"/>
-      <c r="V311" s="24"/>
-      <c r="W311" s="24"/>
-      <c r="X311" s="24"/>
-      <c r="Y311" s="24"/>
-      <c r="Z311" s="24"/>
+      <c r="S311" s="26"/>
+      <c r="T311" s="27"/>
+      <c r="U311" s="27"/>
+      <c r="V311" s="27"/>
+      <c r="W311" s="27"/>
+      <c r="X311" s="27"/>
+      <c r="Y311" s="27"/>
+      <c r="Z311" s="27"/>
     </row>
     <row r="312">
       <c r="A312" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F312" s="13">
         <v>45930.0</v>
@@ -30062,18 +30033,18 @@
         <f t="shared" si="4"/>
         <v>21.29880403</v>
       </c>
-      <c r="S312" s="24"/>
-      <c r="T312" s="24"/>
-      <c r="U312" s="24"/>
-      <c r="V312" s="24"/>
-      <c r="W312" s="24"/>
-      <c r="X312" s="24"/>
-      <c r="Y312" s="24"/>
-      <c r="Z312" s="24"/>
+      <c r="S312" s="27"/>
+      <c r="T312" s="27"/>
+      <c r="U312" s="27"/>
+      <c r="V312" s="27"/>
+      <c r="W312" s="27"/>
+      <c r="X312" s="27"/>
+      <c r="Y312" s="27"/>
+      <c r="Z312" s="27"/>
     </row>
     <row r="313">
       <c r="A313" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F313" s="13">
         <v>45930.0</v>
@@ -30102,18 +30073,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S313" s="24"/>
-      <c r="T313" s="24"/>
-      <c r="U313" s="24"/>
-      <c r="V313" s="24"/>
-      <c r="W313" s="24"/>
-      <c r="X313" s="24"/>
-      <c r="Y313" s="24"/>
-      <c r="Z313" s="24"/>
+      <c r="S313" s="27"/>
+      <c r="T313" s="27"/>
+      <c r="U313" s="27"/>
+      <c r="V313" s="27"/>
+      <c r="W313" s="27"/>
+      <c r="X313" s="27"/>
+      <c r="Y313" s="27"/>
+      <c r="Z313" s="27"/>
     </row>
     <row r="314">
       <c r="A314" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F314" s="13">
         <v>45930.0</v>
@@ -30151,18 +30122,18 @@
         <f t="shared" si="4"/>
         <v>13.28115079</v>
       </c>
-      <c r="S314" s="24"/>
-      <c r="T314" s="24"/>
-      <c r="U314" s="24"/>
-      <c r="V314" s="24"/>
-      <c r="W314" s="24"/>
-      <c r="X314" s="24"/>
-      <c r="Y314" s="24"/>
-      <c r="Z314" s="24"/>
+      <c r="S314" s="27"/>
+      <c r="T314" s="27"/>
+      <c r="U314" s="27"/>
+      <c r="V314" s="27"/>
+      <c r="W314" s="27"/>
+      <c r="X314" s="27"/>
+      <c r="Y314" s="27"/>
+      <c r="Z314" s="27"/>
     </row>
     <row r="315">
       <c r="A315" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F315" s="13">
         <v>45930.0</v>
@@ -30203,7 +30174,7 @@
     </row>
     <row r="316">
       <c r="A316" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F316" s="13">
         <v>45930.0</v>
@@ -30235,7 +30206,7 @@
     </row>
     <row r="317">
       <c r="A317" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F317" s="13">
         <v>45930.0</v>
@@ -30276,7 +30247,7 @@
     </row>
     <row r="318">
       <c r="A318" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F318" s="13">
         <v>45930.0</v>
@@ -30317,7 +30288,7 @@
     </row>
     <row r="319">
       <c r="A319" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F319" s="13">
         <v>45930.0</v>
@@ -30358,7 +30329,7 @@
     </row>
     <row r="320">
       <c r="A320" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F320" s="13">
         <v>45930.0</v>
@@ -30390,7 +30361,7 @@
     </row>
     <row r="321">
       <c r="A321" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F321" s="13">
         <v>45930.0</v>
@@ -30431,7 +30402,7 @@
     </row>
     <row r="322">
       <c r="A322" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F322" s="13">
         <v>45930.0</v>
@@ -30472,7 +30443,7 @@
     </row>
     <row r="323">
       <c r="A323" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F323" s="13">
         <v>45930.0</v>
@@ -30513,7 +30484,7 @@
     </row>
     <row r="324">
       <c r="A324" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F324" s="13">
         <v>45930.0</v>
@@ -30554,7 +30525,7 @@
     </row>
     <row r="325">
       <c r="A325" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F325" s="13">
         <v>45930.0</v>
@@ -30595,7 +30566,7 @@
     </row>
     <row r="326">
       <c r="A326" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F326" s="13">
         <v>45930.0</v>
@@ -30636,7 +30607,7 @@
     </row>
     <row r="327">
       <c r="A327" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F327" s="13">
         <v>45930.0</v>
@@ -30677,7 +30648,7 @@
     </row>
     <row r="328">
       <c r="A328" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F328" s="13">
         <v>45930.0</v>
@@ -30759,7 +30730,7 @@
     </row>
     <row r="330">
       <c r="A330" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F330" s="13">
         <v>45930.0</v>
@@ -30800,7 +30771,7 @@
     </row>
     <row r="331">
       <c r="A331" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F331" s="13">
         <v>45930.0</v>
@@ -30882,7 +30853,7 @@
     </row>
     <row r="333">
       <c r="A333" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F333" s="13">
         <v>45930.0</v>
@@ -30923,7 +30894,7 @@
     </row>
     <row r="334">
       <c r="A334" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E334" s="12"/>
       <c r="F334" s="13">
@@ -30965,7 +30936,7 @@
     </row>
     <row r="335">
       <c r="A335" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E335" s="12"/>
       <c r="F335" s="13">
@@ -31007,7 +30978,7 @@
     </row>
     <row r="336">
       <c r="A336" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E336" s="12"/>
       <c r="F336" s="13">
@@ -31052,7 +31023,7 @@
     </row>
     <row r="337">
       <c r="A337" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E337" s="12"/>
       <c r="F337" s="13">
@@ -31097,7 +31068,7 @@
     </row>
     <row r="338">
       <c r="A338" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E338" s="12"/>
       <c r="F338" s="13">
@@ -31139,7 +31110,7 @@
     </row>
     <row r="339">
       <c r="A339" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E339" s="12"/>
       <c r="F339" s="13">
@@ -31181,9 +31152,8 @@
     </row>
     <row r="340">
       <c r="A340" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E340" s="12"/>
+        <v>148</v>
+      </c>
       <c r="F340" s="13">
         <v>45930.0</v>
       </c>
@@ -31191,13 +31161,13 @@
         <v>35</v>
       </c>
       <c r="H340" s="11">
-        <v>10.47</v>
+        <v>10.36</v>
       </c>
       <c r="I340" s="11">
-        <v>10.55</v>
+        <v>10.57</v>
       </c>
       <c r="J340" s="11">
-        <v>10.56</v>
+        <v>10.7</v>
       </c>
       <c r="K340" s="11">
         <v>30.8</v>
@@ -31210,20 +31180,20 @@
       </c>
       <c r="N340" s="10">
         <f t="shared" si="2"/>
-        <v>16.02000562</v>
+        <v>15.85169611</v>
       </c>
       <c r="O340" s="10">
         <f t="shared" si="3"/>
-        <v>16.14241254</v>
+        <v>16.17301427</v>
       </c>
       <c r="P340" s="10">
         <f t="shared" si="4"/>
-        <v>16.15771341</v>
+        <v>16.37192551</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F341" s="13">
         <v>45930.0</v>
@@ -31232,13 +31202,13 @@
         <v>35</v>
       </c>
       <c r="H341" s="11">
-        <v>10.36</v>
+        <v>10.61</v>
       </c>
       <c r="I341" s="11">
-        <v>10.57</v>
+        <v>10.66</v>
       </c>
       <c r="J341" s="11">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="K341" s="11">
         <v>30.8</v>
@@ -31251,20 +31221,20 @@
       </c>
       <c r="N341" s="10">
         <f t="shared" si="2"/>
-        <v>15.85169611</v>
+        <v>16.23421773</v>
       </c>
       <c r="O341" s="10">
         <f t="shared" si="3"/>
-        <v>16.17301427</v>
+        <v>16.31072206</v>
       </c>
       <c r="P341" s="10">
         <f t="shared" si="4"/>
-        <v>16.37192551</v>
+        <v>16.06590822</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E342" s="12"/>
       <c r="F342" s="13">
@@ -31274,13 +31244,13 @@
         <v>35</v>
       </c>
       <c r="H342" s="11">
-        <v>10.81</v>
+        <v>12.92</v>
       </c>
       <c r="I342" s="11">
-        <v>10.52</v>
+        <v>13.12</v>
       </c>
       <c r="J342" s="11">
-        <v>10.66</v>
+        <v>13.2</v>
       </c>
       <c r="K342" s="11">
         <v>30.8</v>
@@ -31293,21 +31263,25 @@
       </c>
       <c r="N342" s="10">
         <f t="shared" si="2"/>
-        <v>16.54023503</v>
+        <v>19.76871754</v>
       </c>
       <c r="O342" s="10">
         <f t="shared" si="3"/>
-        <v>16.09650995</v>
+        <v>20.07473484</v>
       </c>
       <c r="P342" s="10">
         <f t="shared" si="4"/>
-        <v>16.31072206</v>
+        <v>20.19714176</v>
+      </c>
+      <c r="R342" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="11" t="s">
-        <v>148</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E343" s="12"/>
       <c r="F343" s="13">
         <v>45930.0</v>
       </c>
@@ -31315,13 +31289,13 @@
         <v>35</v>
       </c>
       <c r="H343" s="11">
-        <v>10.61</v>
+        <v>13.13</v>
       </c>
       <c r="I343" s="11">
-        <v>10.66</v>
+        <v>13.1</v>
       </c>
       <c r="J343" s="11">
-        <v>10.5</v>
+        <v>13.18</v>
       </c>
       <c r="K343" s="11">
         <v>30.8</v>
@@ -31334,20 +31308,20 @@
       </c>
       <c r="N343" s="10">
         <f t="shared" si="2"/>
-        <v>16.23421773</v>
+        <v>20.0900357</v>
       </c>
       <c r="O343" s="10">
         <f t="shared" si="3"/>
-        <v>16.31072206</v>
+        <v>20.04413311</v>
       </c>
       <c r="P343" s="10">
         <f t="shared" si="4"/>
-        <v>16.06590822</v>
+        <v>20.16654003</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E344" s="12"/>
       <c r="F344" s="13">
@@ -31357,13 +31331,13 @@
         <v>35</v>
       </c>
       <c r="H344" s="11">
-        <v>12.92</v>
+        <v>12.61</v>
       </c>
       <c r="I344" s="11">
-        <v>13.12</v>
+        <v>12.52</v>
       </c>
       <c r="J344" s="11">
-        <v>13.2</v>
+        <v>12.55</v>
       </c>
       <c r="K344" s="11">
         <v>30.8</v>
@@ -31376,25 +31350,21 @@
       </c>
       <c r="N344" s="10">
         <f t="shared" si="2"/>
-        <v>19.76871754</v>
+        <v>19.29439072</v>
       </c>
       <c r="O344" s="10">
         <f t="shared" si="3"/>
-        <v>20.07473484</v>
+        <v>19.15668294</v>
       </c>
       <c r="P344" s="10">
         <f t="shared" si="4"/>
-        <v>20.19714176</v>
-      </c>
-      <c r="R344" s="11" t="s">
-        <v>172</v>
+        <v>19.20258553</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E345" s="12"/>
+        <v>37</v>
+      </c>
       <c r="F345" s="13">
         <v>45930.0</v>
       </c>
@@ -31402,13 +31372,13 @@
         <v>35</v>
       </c>
       <c r="H345" s="11">
-        <v>13.13</v>
+        <v>11.38</v>
       </c>
       <c r="I345" s="11">
-        <v>13.1</v>
+        <v>11.48</v>
       </c>
       <c r="J345" s="11">
-        <v>13.18</v>
+        <v>11.61</v>
       </c>
       <c r="K345" s="11">
         <v>30.8</v>
@@ -31421,20 +31391,20 @@
       </c>
       <c r="N345" s="10">
         <f t="shared" si="2"/>
-        <v>20.0900357</v>
+        <v>17.41238433</v>
       </c>
       <c r="O345" s="10">
         <f t="shared" si="3"/>
-        <v>20.04413311</v>
+        <v>17.56539298</v>
       </c>
       <c r="P345" s="10">
         <f t="shared" si="4"/>
-        <v>20.16654003</v>
+        <v>17.76430423</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E346" s="12"/>
       <c r="F346" s="13">
@@ -31444,13 +31414,13 @@
         <v>35</v>
       </c>
       <c r="H346" s="11">
-        <v>12.61</v>
+        <v>9.49</v>
       </c>
       <c r="I346" s="11">
-        <v>12.52</v>
+        <v>9.55</v>
       </c>
       <c r="J346" s="11">
-        <v>12.55</v>
+        <v>9.72</v>
       </c>
       <c r="K346" s="11">
         <v>30.8</v>
@@ -31463,21 +31433,28 @@
       </c>
       <c r="N346" s="10">
         <f t="shared" si="2"/>
-        <v>19.29439072</v>
+        <v>14.52052085</v>
       </c>
       <c r="O346" s="10">
         <f t="shared" si="3"/>
-        <v>19.15668294</v>
+        <v>14.61232604</v>
       </c>
       <c r="P346" s="10">
         <f t="shared" si="4"/>
-        <v>19.20258553</v>
+        <v>14.87244075</v>
+      </c>
+      <c r="Q346" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R346" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E347" s="12"/>
       <c r="F347" s="13">
         <v>45930.0</v>
       </c>
@@ -31485,13 +31462,13 @@
         <v>35</v>
       </c>
       <c r="H347" s="11">
-        <v>11.38</v>
+        <v>10.62</v>
       </c>
       <c r="I347" s="11">
-        <v>11.48</v>
+        <v>10.59</v>
       </c>
       <c r="J347" s="11">
-        <v>11.61</v>
+        <v>10.61</v>
       </c>
       <c r="K347" s="11">
         <v>30.8</v>
@@ -31504,20 +31481,26 @@
       </c>
       <c r="N347" s="10">
         <f t="shared" si="2"/>
-        <v>17.41238433</v>
+        <v>16.2495186</v>
       </c>
       <c r="O347" s="10">
         <f t="shared" si="3"/>
-        <v>17.56539298</v>
+        <v>16.203616</v>
       </c>
       <c r="P347" s="10">
         <f t="shared" si="4"/>
-        <v>17.76430423</v>
+        <v>16.23421773</v>
+      </c>
+      <c r="Q347" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="R347" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="11" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="E348" s="12"/>
       <c r="F348" s="13">
@@ -31527,13 +31510,13 @@
         <v>35</v>
       </c>
       <c r="H348" s="11">
-        <v>9.49</v>
+        <v>10.72</v>
       </c>
       <c r="I348" s="11">
-        <v>9.55</v>
+        <v>10.91</v>
       </c>
       <c r="J348" s="11">
-        <v>9.72</v>
+        <v>10.81</v>
       </c>
       <c r="K348" s="11">
         <v>30.8</v>
@@ -31546,2041 +31529,1945 @@
       </c>
       <c r="N348" s="10">
         <f t="shared" si="2"/>
-        <v>14.52052085</v>
+        <v>16.40252724</v>
       </c>
       <c r="O348" s="10">
         <f t="shared" si="3"/>
-        <v>14.61232604</v>
+        <v>16.69324368</v>
       </c>
       <c r="P348" s="10">
         <f t="shared" si="4"/>
-        <v>14.87244075</v>
-      </c>
-      <c r="Q348" s="11" t="s">
-        <v>169</v>
+        <v>16.54023503</v>
       </c>
       <c r="R348" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E349" s="12"/>
-      <c r="F349" s="13">
-        <v>45930.0</v>
-      </c>
-      <c r="G349" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H349" s="11">
-        <v>10.62</v>
-      </c>
-      <c r="I349" s="11">
-        <v>10.59</v>
-      </c>
-      <c r="J349" s="11">
-        <v>10.61</v>
-      </c>
-      <c r="K349" s="11">
-        <v>30.8</v>
-      </c>
-      <c r="L349" s="11">
-        <v>30.1</v>
-      </c>
-      <c r="M349" s="11">
-        <v>1018.54</v>
-      </c>
-      <c r="N349" s="10">
-        <f t="shared" si="2"/>
-        <v>16.2495186</v>
-      </c>
-      <c r="O349" s="10">
-        <f t="shared" si="3"/>
-        <v>16.203616</v>
-      </c>
-      <c r="P349" s="10">
-        <f t="shared" si="4"/>
-        <v>16.23421773</v>
-      </c>
-      <c r="Q349" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="R349" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E350" s="12"/>
-      <c r="F350" s="13">
-        <v>45930.0</v>
-      </c>
-      <c r="G350" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H350" s="11">
-        <v>10.72</v>
-      </c>
-      <c r="I350" s="11">
-        <v>10.91</v>
-      </c>
-      <c r="J350" s="11">
-        <v>10.81</v>
-      </c>
-      <c r="K350" s="11">
-        <v>30.8</v>
-      </c>
-      <c r="L350" s="11">
-        <v>30.1</v>
-      </c>
-      <c r="M350" s="11">
-        <v>1018.54</v>
-      </c>
-      <c r="N350" s="10">
-        <f t="shared" si="2"/>
-        <v>16.40252724</v>
-      </c>
-      <c r="O350" s="10">
-        <f t="shared" si="3"/>
-        <v>16.69324368</v>
-      </c>
-      <c r="P350" s="10">
-        <f t="shared" si="4"/>
-        <v>16.54023503</v>
-      </c>
-      <c r="R350" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="G352" s="25"/>
+      <c r="G350" s="28"/>
+    </row>
+    <row r="351">
+      <c r="G351" s="28"/>
     </row>
     <row r="353">
-      <c r="G353" s="25"/>
+      <c r="G353" s="28"/>
+    </row>
+    <row r="354">
+      <c r="G354" s="28"/>
     </row>
     <row r="355">
-      <c r="G355" s="25"/>
+      <c r="G355" s="28"/>
     </row>
     <row r="356">
-      <c r="G356" s="25"/>
+      <c r="G356" s="28"/>
     </row>
     <row r="357">
-      <c r="G357" s="25"/>
+      <c r="E357" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G357" s="28"/>
     </row>
     <row r="358">
-      <c r="G358" s="25"/>
+      <c r="G358" s="28"/>
     </row>
     <row r="359">
-      <c r="E359" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G359" s="25"/>
+      <c r="G359" s="28"/>
     </row>
     <row r="360">
-      <c r="G360" s="25"/>
+      <c r="G360" s="28"/>
     </row>
     <row r="361">
-      <c r="G361" s="25"/>
+      <c r="G361" s="28"/>
     </row>
     <row r="362">
-      <c r="G362" s="25"/>
+      <c r="G362" s="28"/>
     </row>
     <row r="363">
-      <c r="G363" s="25"/>
+      <c r="G363" s="28"/>
     </row>
     <row r="364">
-      <c r="G364" s="25"/>
+      <c r="G364" s="28"/>
     </row>
     <row r="365">
-      <c r="G365" s="25"/>
+      <c r="G365" s="28"/>
     </row>
     <row r="366">
-      <c r="G366" s="25"/>
+      <c r="G366" s="28"/>
     </row>
     <row r="367">
-      <c r="G367" s="25"/>
+      <c r="G367" s="28"/>
     </row>
     <row r="368">
-      <c r="G368" s="25"/>
+      <c r="G368" s="28"/>
     </row>
     <row r="369">
-      <c r="G369" s="25"/>
+      <c r="G369" s="28"/>
     </row>
     <row r="370">
-      <c r="G370" s="25"/>
+      <c r="G370" s="28"/>
     </row>
     <row r="371">
-      <c r="G371" s="25"/>
+      <c r="G371" s="28"/>
     </row>
     <row r="372">
-      <c r="G372" s="25"/>
+      <c r="G372" s="28"/>
     </row>
     <row r="373">
-      <c r="G373" s="25"/>
+      <c r="G373" s="28"/>
     </row>
     <row r="374">
-      <c r="G374" s="25"/>
+      <c r="G374" s="28"/>
     </row>
     <row r="375">
-      <c r="G375" s="25"/>
+      <c r="G375" s="28"/>
     </row>
     <row r="376">
-      <c r="G376" s="25"/>
+      <c r="G376" s="28"/>
     </row>
     <row r="377">
-      <c r="G377" s="25"/>
+      <c r="G377" s="28"/>
     </row>
     <row r="378">
-      <c r="G378" s="25"/>
+      <c r="G378" s="28"/>
     </row>
     <row r="379">
-      <c r="G379" s="25"/>
+      <c r="G379" s="28"/>
     </row>
     <row r="380">
-      <c r="G380" s="25"/>
+      <c r="G380" s="28"/>
     </row>
     <row r="381">
-      <c r="G381" s="25"/>
+      <c r="G381" s="28"/>
     </row>
     <row r="382">
-      <c r="G382" s="25"/>
+      <c r="G382" s="28"/>
     </row>
     <row r="383">
-      <c r="G383" s="25"/>
+      <c r="G383" s="28"/>
     </row>
     <row r="384">
-      <c r="G384" s="25"/>
+      <c r="G384" s="28"/>
     </row>
     <row r="385">
-      <c r="G385" s="25"/>
+      <c r="G385" s="28"/>
     </row>
     <row r="386">
-      <c r="G386" s="25"/>
+      <c r="G386" s="28"/>
     </row>
     <row r="387">
-      <c r="G387" s="25"/>
+      <c r="G387" s="28"/>
     </row>
     <row r="388">
-      <c r="G388" s="25"/>
+      <c r="G388" s="28"/>
     </row>
     <row r="389">
-      <c r="G389" s="25"/>
+      <c r="G389" s="28"/>
     </row>
     <row r="390">
-      <c r="G390" s="25"/>
+      <c r="G390" s="28"/>
     </row>
     <row r="391">
-      <c r="G391" s="25"/>
+      <c r="G391" s="28"/>
     </row>
     <row r="392">
-      <c r="G392" s="25"/>
+      <c r="G392" s="28"/>
     </row>
     <row r="393">
-      <c r="G393" s="25"/>
+      <c r="G393" s="28"/>
     </row>
     <row r="394">
-      <c r="G394" s="25"/>
+      <c r="G394" s="28"/>
     </row>
     <row r="395">
-      <c r="G395" s="25"/>
+      <c r="G395" s="28"/>
     </row>
     <row r="396">
-      <c r="G396" s="25"/>
+      <c r="G396" s="28"/>
     </row>
     <row r="397">
-      <c r="G397" s="25"/>
+      <c r="G397" s="28"/>
     </row>
     <row r="398">
-      <c r="G398" s="25"/>
+      <c r="G398" s="28"/>
     </row>
     <row r="399">
-      <c r="G399" s="25"/>
+      <c r="G399" s="28"/>
     </row>
     <row r="400">
-      <c r="G400" s="25"/>
+      <c r="G400" s="28"/>
     </row>
     <row r="401">
-      <c r="G401" s="25"/>
+      <c r="G401" s="28"/>
     </row>
     <row r="402">
-      <c r="G402" s="25"/>
+      <c r="G402" s="28"/>
     </row>
     <row r="403">
-      <c r="G403" s="25"/>
+      <c r="G403" s="28"/>
     </row>
     <row r="404">
-      <c r="G404" s="25"/>
+      <c r="G404" s="28"/>
     </row>
     <row r="405">
-      <c r="G405" s="25"/>
+      <c r="G405" s="28"/>
     </row>
     <row r="406">
-      <c r="G406" s="25"/>
+      <c r="G406" s="28"/>
     </row>
     <row r="407">
-      <c r="G407" s="25"/>
+      <c r="G407" s="28"/>
     </row>
     <row r="408">
-      <c r="G408" s="25"/>
+      <c r="G408" s="28"/>
     </row>
     <row r="409">
-      <c r="G409" s="25"/>
+      <c r="G409" s="28"/>
     </row>
     <row r="410">
-      <c r="G410" s="25"/>
+      <c r="G410" s="28"/>
     </row>
     <row r="411">
-      <c r="G411" s="25"/>
+      <c r="G411" s="28"/>
     </row>
     <row r="412">
-      <c r="G412" s="25"/>
+      <c r="G412" s="28"/>
     </row>
     <row r="413">
-      <c r="G413" s="25"/>
+      <c r="G413" s="28"/>
     </row>
     <row r="414">
-      <c r="G414" s="25"/>
+      <c r="G414" s="28"/>
     </row>
     <row r="415">
-      <c r="G415" s="25"/>
+      <c r="G415" s="28"/>
     </row>
     <row r="416">
-      <c r="G416" s="25"/>
+      <c r="G416" s="28"/>
     </row>
     <row r="417">
-      <c r="G417" s="25"/>
+      <c r="G417" s="28"/>
     </row>
     <row r="418">
-      <c r="G418" s="25"/>
+      <c r="G418" s="28"/>
     </row>
     <row r="419">
-      <c r="G419" s="25"/>
+      <c r="G419" s="28"/>
     </row>
     <row r="420">
-      <c r="G420" s="25"/>
+      <c r="G420" s="28"/>
     </row>
     <row r="421">
-      <c r="G421" s="25"/>
+      <c r="G421" s="28"/>
     </row>
     <row r="422">
-      <c r="G422" s="25"/>
+      <c r="G422" s="28"/>
     </row>
     <row r="423">
-      <c r="G423" s="25"/>
+      <c r="G423" s="28"/>
     </row>
     <row r="424">
-      <c r="G424" s="25"/>
+      <c r="G424" s="28"/>
     </row>
     <row r="425">
-      <c r="G425" s="25"/>
+      <c r="G425" s="28"/>
     </row>
     <row r="426">
-      <c r="G426" s="25"/>
+      <c r="G426" s="28"/>
     </row>
     <row r="427">
-      <c r="G427" s="25"/>
+      <c r="G427" s="28"/>
     </row>
     <row r="428">
-      <c r="G428" s="25"/>
+      <c r="G428" s="28"/>
     </row>
     <row r="429">
-      <c r="G429" s="25"/>
+      <c r="G429" s="28"/>
     </row>
     <row r="430">
-      <c r="G430" s="25"/>
+      <c r="G430" s="28"/>
     </row>
     <row r="431">
-      <c r="G431" s="25"/>
+      <c r="G431" s="28"/>
     </row>
     <row r="432">
-      <c r="G432" s="25"/>
+      <c r="G432" s="28"/>
     </row>
     <row r="433">
-      <c r="G433" s="25"/>
+      <c r="G433" s="28"/>
     </row>
     <row r="434">
-      <c r="G434" s="25"/>
+      <c r="G434" s="28"/>
     </row>
     <row r="435">
-      <c r="G435" s="25"/>
+      <c r="G435" s="28"/>
     </row>
     <row r="436">
-      <c r="G436" s="25"/>
+      <c r="G436" s="28"/>
     </row>
     <row r="437">
-      <c r="G437" s="25"/>
+      <c r="G437" s="28"/>
     </row>
     <row r="438">
-      <c r="G438" s="25"/>
+      <c r="G438" s="28"/>
     </row>
     <row r="439">
-      <c r="G439" s="25"/>
+      <c r="G439" s="28"/>
     </row>
     <row r="440">
-      <c r="G440" s="25"/>
+      <c r="G440" s="28"/>
     </row>
     <row r="441">
-      <c r="G441" s="25"/>
+      <c r="G441" s="28"/>
     </row>
     <row r="442">
-      <c r="G442" s="25"/>
+      <c r="G442" s="28"/>
     </row>
     <row r="443">
-      <c r="G443" s="25"/>
+      <c r="G443" s="28"/>
     </row>
     <row r="444">
-      <c r="G444" s="25"/>
+      <c r="G444" s="28"/>
     </row>
     <row r="445">
-      <c r="G445" s="25"/>
+      <c r="G445" s="28"/>
     </row>
     <row r="446">
-      <c r="G446" s="25"/>
+      <c r="G446" s="28"/>
     </row>
     <row r="447">
-      <c r="G447" s="25"/>
+      <c r="G447" s="28"/>
     </row>
     <row r="448">
-      <c r="G448" s="25"/>
+      <c r="G448" s="28"/>
     </row>
     <row r="449">
-      <c r="G449" s="25"/>
+      <c r="G449" s="28"/>
     </row>
     <row r="450">
-      <c r="G450" s="25"/>
+      <c r="G450" s="28"/>
     </row>
     <row r="451">
-      <c r="G451" s="25"/>
+      <c r="G451" s="28"/>
     </row>
     <row r="452">
-      <c r="G452" s="25"/>
+      <c r="G452" s="28"/>
     </row>
     <row r="453">
-      <c r="G453" s="25"/>
+      <c r="G453" s="28"/>
     </row>
     <row r="454">
-      <c r="G454" s="25"/>
+      <c r="G454" s="28"/>
     </row>
     <row r="455">
-      <c r="G455" s="25"/>
+      <c r="G455" s="28"/>
     </row>
     <row r="456">
-      <c r="G456" s="25"/>
+      <c r="G456" s="28"/>
     </row>
     <row r="457">
-      <c r="G457" s="25"/>
+      <c r="G457" s="28"/>
     </row>
     <row r="458">
-      <c r="G458" s="25"/>
+      <c r="G458" s="28"/>
     </row>
     <row r="459">
-      <c r="G459" s="25"/>
+      <c r="G459" s="28"/>
     </row>
     <row r="460">
-      <c r="G460" s="25"/>
+      <c r="G460" s="28"/>
     </row>
     <row r="461">
-      <c r="G461" s="25"/>
+      <c r="G461" s="28"/>
     </row>
     <row r="462">
-      <c r="G462" s="25"/>
+      <c r="G462" s="28"/>
     </row>
     <row r="463">
-      <c r="G463" s="25"/>
+      <c r="G463" s="28"/>
     </row>
     <row r="464">
-      <c r="G464" s="25"/>
+      <c r="G464" s="28"/>
     </row>
     <row r="465">
-      <c r="G465" s="25"/>
+      <c r="G465" s="28"/>
     </row>
     <row r="466">
-      <c r="G466" s="25"/>
+      <c r="G466" s="28"/>
     </row>
     <row r="467">
-      <c r="G467" s="25"/>
+      <c r="G467" s="28"/>
     </row>
     <row r="468">
-      <c r="G468" s="25"/>
+      <c r="G468" s="28"/>
     </row>
     <row r="469">
-      <c r="G469" s="25"/>
+      <c r="G469" s="28"/>
     </row>
     <row r="470">
-      <c r="G470" s="25"/>
+      <c r="G470" s="28"/>
     </row>
     <row r="471">
-      <c r="G471" s="25"/>
+      <c r="G471" s="28"/>
     </row>
     <row r="472">
-      <c r="G472" s="25"/>
+      <c r="G472" s="28"/>
     </row>
     <row r="473">
-      <c r="G473" s="25"/>
+      <c r="G473" s="28"/>
     </row>
     <row r="474">
-      <c r="G474" s="25"/>
+      <c r="G474" s="28"/>
     </row>
     <row r="475">
-      <c r="G475" s="25"/>
+      <c r="G475" s="28"/>
     </row>
     <row r="476">
-      <c r="G476" s="25"/>
+      <c r="G476" s="28"/>
     </row>
     <row r="477">
-      <c r="G477" s="25"/>
+      <c r="G477" s="28"/>
     </row>
     <row r="478">
-      <c r="G478" s="25"/>
+      <c r="G478" s="28"/>
     </row>
     <row r="479">
-      <c r="G479" s="25"/>
+      <c r="G479" s="28"/>
     </row>
     <row r="480">
-      <c r="G480" s="25"/>
+      <c r="G480" s="28"/>
     </row>
     <row r="481">
-      <c r="G481" s="25"/>
+      <c r="G481" s="28"/>
     </row>
     <row r="482">
-      <c r="G482" s="25"/>
+      <c r="G482" s="28"/>
     </row>
     <row r="483">
-      <c r="G483" s="25"/>
+      <c r="G483" s="28"/>
     </row>
     <row r="484">
-      <c r="G484" s="25"/>
+      <c r="G484" s="28"/>
     </row>
     <row r="485">
-      <c r="G485" s="25"/>
+      <c r="G485" s="28"/>
     </row>
     <row r="486">
-      <c r="G486" s="25"/>
+      <c r="G486" s="28"/>
     </row>
     <row r="487">
-      <c r="G487" s="25"/>
+      <c r="G487" s="28"/>
     </row>
     <row r="488">
-      <c r="G488" s="25"/>
+      <c r="G488" s="28"/>
     </row>
     <row r="489">
-      <c r="G489" s="25"/>
+      <c r="G489" s="28"/>
     </row>
     <row r="490">
-      <c r="G490" s="25"/>
+      <c r="G490" s="28"/>
     </row>
     <row r="491">
-      <c r="G491" s="25"/>
+      <c r="G491" s="28"/>
     </row>
     <row r="492">
-      <c r="G492" s="25"/>
+      <c r="G492" s="28"/>
     </row>
     <row r="493">
-      <c r="G493" s="25"/>
+      <c r="G493" s="28"/>
     </row>
     <row r="494">
-      <c r="G494" s="25"/>
+      <c r="G494" s="28"/>
     </row>
     <row r="495">
-      <c r="G495" s="25"/>
+      <c r="G495" s="28"/>
     </row>
     <row r="496">
-      <c r="G496" s="25"/>
+      <c r="G496" s="28"/>
     </row>
     <row r="497">
-      <c r="G497" s="25"/>
+      <c r="G497" s="28"/>
     </row>
     <row r="498">
-      <c r="G498" s="25"/>
+      <c r="G498" s="28"/>
     </row>
     <row r="499">
-      <c r="G499" s="25"/>
+      <c r="G499" s="28"/>
     </row>
     <row r="500">
-      <c r="G500" s="25"/>
+      <c r="G500" s="28"/>
     </row>
     <row r="501">
-      <c r="G501" s="25"/>
+      <c r="G501" s="28"/>
     </row>
     <row r="502">
-      <c r="G502" s="25"/>
+      <c r="G502" s="28"/>
     </row>
     <row r="503">
-      <c r="G503" s="25"/>
+      <c r="G503" s="28"/>
     </row>
     <row r="504">
-      <c r="G504" s="25"/>
+      <c r="G504" s="28"/>
     </row>
     <row r="505">
-      <c r="G505" s="25"/>
+      <c r="G505" s="28"/>
     </row>
     <row r="506">
-      <c r="G506" s="25"/>
+      <c r="G506" s="28"/>
     </row>
     <row r="507">
-      <c r="G507" s="25"/>
+      <c r="G507" s="28"/>
     </row>
     <row r="508">
-      <c r="G508" s="25"/>
+      <c r="G508" s="28"/>
     </row>
     <row r="509">
-      <c r="G509" s="25"/>
+      <c r="G509" s="28"/>
     </row>
     <row r="510">
-      <c r="G510" s="25"/>
+      <c r="G510" s="28"/>
     </row>
     <row r="511">
-      <c r="G511" s="25"/>
+      <c r="G511" s="28"/>
     </row>
     <row r="512">
-      <c r="G512" s="25"/>
+      <c r="G512" s="28"/>
     </row>
     <row r="513">
-      <c r="G513" s="25"/>
+      <c r="G513" s="28"/>
     </row>
     <row r="514">
-      <c r="G514" s="25"/>
+      <c r="G514" s="28"/>
     </row>
     <row r="515">
-      <c r="G515" s="25"/>
+      <c r="G515" s="28"/>
     </row>
     <row r="516">
-      <c r="G516" s="25"/>
+      <c r="G516" s="28"/>
     </row>
     <row r="517">
-      <c r="G517" s="25"/>
+      <c r="G517" s="28"/>
     </row>
     <row r="518">
-      <c r="G518" s="25"/>
+      <c r="G518" s="28"/>
     </row>
     <row r="519">
-      <c r="G519" s="25"/>
+      <c r="G519" s="28"/>
     </row>
     <row r="520">
-      <c r="G520" s="25"/>
+      <c r="G520" s="28"/>
     </row>
     <row r="521">
-      <c r="G521" s="25"/>
+      <c r="G521" s="28"/>
     </row>
     <row r="522">
-      <c r="G522" s="25"/>
+      <c r="G522" s="28"/>
     </row>
     <row r="523">
-      <c r="G523" s="25"/>
+      <c r="G523" s="28"/>
     </row>
     <row r="524">
-      <c r="G524" s="25"/>
+      <c r="G524" s="28"/>
     </row>
     <row r="525">
-      <c r="G525" s="25"/>
+      <c r="G525" s="28"/>
     </row>
     <row r="526">
-      <c r="G526" s="25"/>
+      <c r="G526" s="28"/>
     </row>
     <row r="527">
-      <c r="G527" s="25"/>
+      <c r="G527" s="28"/>
     </row>
     <row r="528">
-      <c r="G528" s="25"/>
+      <c r="G528" s="28"/>
     </row>
     <row r="529">
-      <c r="G529" s="25"/>
+      <c r="G529" s="28"/>
     </row>
     <row r="530">
-      <c r="G530" s="25"/>
+      <c r="G530" s="28"/>
     </row>
     <row r="531">
-      <c r="G531" s="25"/>
+      <c r="G531" s="28"/>
     </row>
     <row r="532">
-      <c r="G532" s="25"/>
+      <c r="G532" s="28"/>
     </row>
     <row r="533">
-      <c r="G533" s="25"/>
+      <c r="G533" s="28"/>
     </row>
     <row r="534">
-      <c r="G534" s="25"/>
+      <c r="G534" s="28"/>
     </row>
     <row r="535">
-      <c r="G535" s="25"/>
+      <c r="G535" s="28"/>
     </row>
     <row r="536">
-      <c r="G536" s="25"/>
+      <c r="G536" s="28"/>
     </row>
     <row r="537">
-      <c r="G537" s="25"/>
+      <c r="G537" s="28"/>
     </row>
     <row r="538">
-      <c r="G538" s="25"/>
+      <c r="G538" s="28"/>
     </row>
     <row r="539">
-      <c r="G539" s="25"/>
+      <c r="G539" s="28"/>
     </row>
     <row r="540">
-      <c r="G540" s="25"/>
+      <c r="G540" s="28"/>
     </row>
     <row r="541">
-      <c r="G541" s="25"/>
+      <c r="G541" s="28"/>
     </row>
     <row r="542">
-      <c r="G542" s="25"/>
+      <c r="G542" s="28"/>
     </row>
     <row r="543">
-      <c r="G543" s="25"/>
+      <c r="G543" s="28"/>
     </row>
     <row r="544">
-      <c r="G544" s="25"/>
+      <c r="G544" s="28"/>
     </row>
     <row r="545">
-      <c r="G545" s="25"/>
+      <c r="G545" s="28"/>
     </row>
     <row r="546">
-      <c r="G546" s="25"/>
+      <c r="G546" s="28"/>
     </row>
     <row r="547">
-      <c r="G547" s="25"/>
+      <c r="G547" s="28"/>
     </row>
     <row r="548">
-      <c r="G548" s="25"/>
+      <c r="G548" s="28"/>
     </row>
     <row r="549">
-      <c r="G549" s="25"/>
+      <c r="G549" s="28"/>
     </row>
     <row r="550">
-      <c r="G550" s="25"/>
+      <c r="G550" s="28"/>
     </row>
     <row r="551">
-      <c r="G551" s="25"/>
+      <c r="G551" s="28"/>
     </row>
     <row r="552">
-      <c r="G552" s="25"/>
+      <c r="G552" s="28"/>
     </row>
     <row r="553">
-      <c r="G553" s="25"/>
+      <c r="G553" s="28"/>
     </row>
     <row r="554">
-      <c r="G554" s="25"/>
+      <c r="G554" s="28"/>
     </row>
     <row r="555">
-      <c r="G555" s="25"/>
+      <c r="G555" s="28"/>
     </row>
     <row r="556">
-      <c r="G556" s="25"/>
+      <c r="G556" s="28"/>
     </row>
     <row r="557">
-      <c r="G557" s="25"/>
+      <c r="G557" s="28"/>
     </row>
     <row r="558">
-      <c r="G558" s="25"/>
+      <c r="G558" s="28"/>
     </row>
     <row r="559">
-      <c r="G559" s="25"/>
+      <c r="G559" s="28"/>
     </row>
     <row r="560">
-      <c r="G560" s="25"/>
+      <c r="G560" s="28"/>
     </row>
     <row r="561">
-      <c r="G561" s="25"/>
+      <c r="G561" s="28"/>
     </row>
     <row r="562">
-      <c r="G562" s="25"/>
+      <c r="G562" s="28"/>
     </row>
     <row r="563">
-      <c r="G563" s="25"/>
+      <c r="G563" s="28"/>
     </row>
     <row r="564">
-      <c r="G564" s="25"/>
+      <c r="G564" s="28"/>
     </row>
     <row r="565">
-      <c r="G565" s="25"/>
+      <c r="G565" s="28"/>
     </row>
     <row r="566">
-      <c r="G566" s="25"/>
+      <c r="G566" s="28"/>
     </row>
     <row r="567">
-      <c r="G567" s="25"/>
+      <c r="G567" s="28"/>
     </row>
     <row r="568">
-      <c r="G568" s="25"/>
+      <c r="G568" s="28"/>
     </row>
     <row r="569">
-      <c r="G569" s="25"/>
+      <c r="G569" s="28"/>
     </row>
     <row r="570">
-      <c r="G570" s="25"/>
+      <c r="G570" s="28"/>
     </row>
     <row r="571">
-      <c r="G571" s="25"/>
+      <c r="G571" s="28"/>
     </row>
     <row r="572">
-      <c r="G572" s="25"/>
+      <c r="G572" s="28"/>
     </row>
     <row r="573">
-      <c r="G573" s="25"/>
+      <c r="G573" s="28"/>
     </row>
     <row r="574">
-      <c r="G574" s="25"/>
+      <c r="G574" s="28"/>
     </row>
     <row r="575">
-      <c r="G575" s="25"/>
+      <c r="G575" s="28"/>
     </row>
     <row r="576">
-      <c r="G576" s="25"/>
+      <c r="G576" s="28"/>
     </row>
     <row r="577">
-      <c r="G577" s="25"/>
+      <c r="G577" s="28"/>
     </row>
     <row r="578">
-      <c r="G578" s="25"/>
+      <c r="G578" s="28"/>
     </row>
     <row r="579">
-      <c r="G579" s="25"/>
+      <c r="G579" s="28"/>
     </row>
     <row r="580">
-      <c r="G580" s="25"/>
+      <c r="G580" s="28"/>
     </row>
     <row r="581">
-      <c r="G581" s="25"/>
+      <c r="G581" s="28"/>
     </row>
     <row r="582">
-      <c r="G582" s="25"/>
+      <c r="G582" s="28"/>
     </row>
     <row r="583">
-      <c r="G583" s="25"/>
+      <c r="G583" s="28"/>
     </row>
     <row r="584">
-      <c r="G584" s="25"/>
+      <c r="G584" s="28"/>
     </row>
     <row r="585">
-      <c r="G585" s="25"/>
+      <c r="G585" s="28"/>
     </row>
     <row r="586">
-      <c r="G586" s="25"/>
+      <c r="G586" s="28"/>
     </row>
     <row r="587">
-      <c r="G587" s="25"/>
+      <c r="G587" s="28"/>
     </row>
     <row r="588">
-      <c r="G588" s="25"/>
+      <c r="G588" s="28"/>
     </row>
     <row r="589">
-      <c r="G589" s="25"/>
+      <c r="G589" s="28"/>
     </row>
     <row r="590">
-      <c r="G590" s="25"/>
+      <c r="G590" s="28"/>
     </row>
     <row r="591">
-      <c r="G591" s="25"/>
+      <c r="G591" s="28"/>
     </row>
     <row r="592">
-      <c r="G592" s="25"/>
+      <c r="G592" s="28"/>
     </row>
     <row r="593">
-      <c r="G593" s="25"/>
+      <c r="G593" s="28"/>
     </row>
     <row r="594">
-      <c r="G594" s="25"/>
+      <c r="G594" s="28"/>
     </row>
     <row r="595">
-      <c r="G595" s="25"/>
+      <c r="G595" s="28"/>
     </row>
     <row r="596">
-      <c r="G596" s="25"/>
+      <c r="G596" s="28"/>
     </row>
     <row r="597">
-      <c r="G597" s="25"/>
+      <c r="G597" s="28"/>
     </row>
     <row r="598">
-      <c r="G598" s="25"/>
+      <c r="G598" s="28"/>
     </row>
     <row r="599">
-      <c r="G599" s="25"/>
+      <c r="G599" s="28"/>
     </row>
     <row r="600">
-      <c r="G600" s="25"/>
+      <c r="G600" s="28"/>
     </row>
     <row r="601">
-      <c r="G601" s="25"/>
+      <c r="G601" s="28"/>
     </row>
     <row r="602">
-      <c r="G602" s="25"/>
+      <c r="G602" s="28"/>
     </row>
     <row r="603">
-      <c r="G603" s="25"/>
+      <c r="G603" s="28"/>
     </row>
     <row r="604">
-      <c r="G604" s="25"/>
+      <c r="G604" s="28"/>
     </row>
     <row r="605">
-      <c r="G605" s="25"/>
+      <c r="G605" s="28"/>
     </row>
     <row r="606">
-      <c r="G606" s="25"/>
+      <c r="G606" s="28"/>
     </row>
     <row r="607">
-      <c r="G607" s="25"/>
+      <c r="G607" s="28"/>
     </row>
     <row r="608">
-      <c r="G608" s="25"/>
+      <c r="G608" s="28"/>
     </row>
     <row r="609">
-      <c r="G609" s="25"/>
+      <c r="G609" s="28"/>
     </row>
     <row r="610">
-      <c r="G610" s="25"/>
+      <c r="G610" s="28"/>
     </row>
     <row r="611">
-      <c r="G611" s="25"/>
+      <c r="G611" s="28"/>
     </row>
     <row r="612">
-      <c r="G612" s="25"/>
+      <c r="G612" s="28"/>
     </row>
     <row r="613">
-      <c r="G613" s="25"/>
+      <c r="G613" s="28"/>
     </row>
     <row r="614">
-      <c r="G614" s="25"/>
+      <c r="G614" s="28"/>
     </row>
     <row r="615">
-      <c r="G615" s="25"/>
+      <c r="G615" s="28"/>
     </row>
     <row r="616">
-      <c r="G616" s="25"/>
+      <c r="G616" s="28"/>
     </row>
     <row r="617">
-      <c r="G617" s="25"/>
+      <c r="G617" s="28"/>
     </row>
     <row r="618">
-      <c r="G618" s="25"/>
+      <c r="G618" s="28"/>
     </row>
     <row r="619">
-      <c r="G619" s="25"/>
+      <c r="G619" s="28"/>
     </row>
     <row r="620">
-      <c r="G620" s="25"/>
+      <c r="G620" s="28"/>
     </row>
     <row r="621">
-      <c r="G621" s="25"/>
+      <c r="G621" s="28"/>
     </row>
     <row r="622">
-      <c r="G622" s="25"/>
+      <c r="G622" s="28"/>
     </row>
     <row r="623">
-      <c r="G623" s="25"/>
+      <c r="G623" s="28"/>
     </row>
     <row r="624">
-      <c r="G624" s="25"/>
+      <c r="G624" s="28"/>
     </row>
     <row r="625">
-      <c r="G625" s="25"/>
+      <c r="G625" s="28"/>
     </row>
     <row r="626">
-      <c r="G626" s="25"/>
+      <c r="G626" s="28"/>
     </row>
     <row r="627">
-      <c r="G627" s="25"/>
+      <c r="G627" s="28"/>
     </row>
     <row r="628">
-      <c r="G628" s="25"/>
+      <c r="G628" s="28"/>
     </row>
     <row r="629">
-      <c r="G629" s="25"/>
+      <c r="G629" s="28"/>
     </row>
     <row r="630">
-      <c r="G630" s="25"/>
+      <c r="G630" s="28"/>
     </row>
     <row r="631">
-      <c r="G631" s="25"/>
+      <c r="G631" s="28"/>
     </row>
     <row r="632">
-      <c r="G632" s="25"/>
+      <c r="G632" s="28"/>
     </row>
     <row r="633">
-      <c r="G633" s="25"/>
+      <c r="G633" s="28"/>
     </row>
     <row r="634">
-      <c r="G634" s="25"/>
+      <c r="G634" s="28"/>
     </row>
     <row r="635">
-      <c r="G635" s="25"/>
+      <c r="G635" s="28"/>
     </row>
     <row r="636">
-      <c r="G636" s="25"/>
+      <c r="G636" s="28"/>
     </row>
     <row r="637">
-      <c r="G637" s="25"/>
+      <c r="G637" s="28"/>
     </row>
     <row r="638">
-      <c r="G638" s="25"/>
+      <c r="G638" s="28"/>
     </row>
     <row r="639">
-      <c r="G639" s="25"/>
+      <c r="G639" s="28"/>
     </row>
     <row r="640">
-      <c r="G640" s="25"/>
+      <c r="G640" s="28"/>
     </row>
     <row r="641">
-      <c r="G641" s="25"/>
+      <c r="G641" s="28"/>
     </row>
     <row r="642">
-      <c r="G642" s="25"/>
+      <c r="G642" s="28"/>
     </row>
     <row r="643">
-      <c r="G643" s="25"/>
+      <c r="G643" s="28"/>
     </row>
     <row r="644">
-      <c r="G644" s="25"/>
+      <c r="G644" s="28"/>
     </row>
     <row r="645">
-      <c r="G645" s="25"/>
+      <c r="G645" s="28"/>
     </row>
     <row r="646">
-      <c r="G646" s="25"/>
+      <c r="G646" s="28"/>
     </row>
     <row r="647">
-      <c r="G647" s="25"/>
+      <c r="G647" s="28"/>
     </row>
     <row r="648">
-      <c r="G648" s="25"/>
+      <c r="G648" s="28"/>
     </row>
     <row r="649">
-      <c r="G649" s="25"/>
+      <c r="G649" s="28"/>
     </row>
     <row r="650">
-      <c r="G650" s="25"/>
+      <c r="G650" s="28"/>
     </row>
     <row r="651">
-      <c r="G651" s="25"/>
+      <c r="G651" s="28"/>
     </row>
     <row r="652">
-      <c r="G652" s="25"/>
+      <c r="G652" s="28"/>
     </row>
     <row r="653">
-      <c r="G653" s="25"/>
+      <c r="G653" s="28"/>
     </row>
     <row r="654">
-      <c r="G654" s="25"/>
+      <c r="G654" s="28"/>
     </row>
     <row r="655">
-      <c r="G655" s="25"/>
+      <c r="G655" s="28"/>
     </row>
     <row r="656">
-      <c r="G656" s="25"/>
+      <c r="G656" s="28"/>
     </row>
     <row r="657">
-      <c r="G657" s="25"/>
+      <c r="G657" s="28"/>
     </row>
     <row r="658">
-      <c r="G658" s="25"/>
+      <c r="G658" s="28"/>
     </row>
     <row r="659">
-      <c r="G659" s="25"/>
+      <c r="G659" s="28"/>
     </row>
     <row r="660">
-      <c r="G660" s="25"/>
+      <c r="G660" s="28"/>
     </row>
     <row r="661">
-      <c r="G661" s="25"/>
+      <c r="G661" s="28"/>
     </row>
     <row r="662">
-      <c r="G662" s="25"/>
+      <c r="G662" s="28"/>
     </row>
     <row r="663">
-      <c r="G663" s="25"/>
+      <c r="G663" s="28"/>
     </row>
     <row r="664">
-      <c r="G664" s="25"/>
+      <c r="G664" s="28"/>
     </row>
     <row r="665">
-      <c r="G665" s="25"/>
+      <c r="G665" s="28"/>
     </row>
     <row r="666">
-      <c r="G666" s="25"/>
+      <c r="G666" s="28"/>
     </row>
     <row r="667">
-      <c r="G667" s="25"/>
+      <c r="G667" s="28"/>
     </row>
     <row r="668">
-      <c r="G668" s="25"/>
+      <c r="G668" s="28"/>
     </row>
     <row r="669">
-      <c r="G669" s="25"/>
+      <c r="G669" s="28"/>
     </row>
     <row r="670">
-      <c r="G670" s="25"/>
+      <c r="G670" s="28"/>
     </row>
     <row r="671">
-      <c r="G671" s="25"/>
+      <c r="G671" s="28"/>
     </row>
     <row r="672">
-      <c r="G672" s="25"/>
+      <c r="G672" s="28"/>
     </row>
     <row r="673">
-      <c r="G673" s="25"/>
+      <c r="G673" s="28"/>
     </row>
     <row r="674">
-      <c r="G674" s="25"/>
+      <c r="G674" s="28"/>
     </row>
     <row r="675">
-      <c r="G675" s="25"/>
+      <c r="G675" s="28"/>
     </row>
     <row r="676">
-      <c r="G676" s="25"/>
+      <c r="G676" s="28"/>
     </row>
     <row r="677">
-      <c r="G677" s="25"/>
+      <c r="G677" s="28"/>
     </row>
     <row r="678">
-      <c r="G678" s="25"/>
+      <c r="G678" s="28"/>
     </row>
     <row r="679">
-      <c r="G679" s="25"/>
+      <c r="G679" s="28"/>
     </row>
     <row r="680">
-      <c r="G680" s="25"/>
+      <c r="G680" s="28"/>
     </row>
     <row r="681">
-      <c r="G681" s="25"/>
+      <c r="G681" s="28"/>
     </row>
     <row r="682">
-      <c r="G682" s="25"/>
+      <c r="G682" s="28"/>
     </row>
     <row r="683">
-      <c r="G683" s="25"/>
+      <c r="G683" s="28"/>
     </row>
     <row r="684">
-      <c r="G684" s="25"/>
+      <c r="G684" s="28"/>
     </row>
     <row r="685">
-      <c r="G685" s="25"/>
+      <c r="G685" s="28"/>
     </row>
     <row r="686">
-      <c r="G686" s="25"/>
+      <c r="G686" s="28"/>
     </row>
     <row r="687">
-      <c r="G687" s="25"/>
+      <c r="G687" s="28"/>
     </row>
     <row r="688">
-      <c r="G688" s="25"/>
+      <c r="G688" s="28"/>
     </row>
     <row r="689">
-      <c r="G689" s="25"/>
+      <c r="G689" s="28"/>
     </row>
     <row r="690">
-      <c r="G690" s="25"/>
+      <c r="G690" s="28"/>
     </row>
     <row r="691">
-      <c r="G691" s="25"/>
+      <c r="G691" s="28"/>
     </row>
     <row r="692">
-      <c r="G692" s="25"/>
+      <c r="G692" s="28"/>
     </row>
     <row r="693">
-      <c r="G693" s="25"/>
+      <c r="G693" s="28"/>
     </row>
     <row r="694">
-      <c r="G694" s="25"/>
+      <c r="G694" s="28"/>
     </row>
     <row r="695">
-      <c r="G695" s="25"/>
+      <c r="G695" s="28"/>
     </row>
     <row r="696">
-      <c r="G696" s="25"/>
+      <c r="G696" s="28"/>
     </row>
     <row r="697">
-      <c r="G697" s="25"/>
+      <c r="G697" s="28"/>
     </row>
     <row r="698">
-      <c r="G698" s="25"/>
+      <c r="G698" s="28"/>
     </row>
     <row r="699">
-      <c r="G699" s="25"/>
+      <c r="G699" s="28"/>
     </row>
     <row r="700">
-      <c r="G700" s="25"/>
+      <c r="G700" s="28"/>
     </row>
     <row r="701">
-      <c r="G701" s="25"/>
+      <c r="G701" s="28"/>
     </row>
     <row r="702">
-      <c r="G702" s="25"/>
+      <c r="G702" s="28"/>
     </row>
     <row r="703">
-      <c r="G703" s="25"/>
+      <c r="G703" s="28"/>
     </row>
     <row r="704">
-      <c r="G704" s="25"/>
+      <c r="G704" s="28"/>
     </row>
     <row r="705">
-      <c r="G705" s="25"/>
+      <c r="G705" s="28"/>
     </row>
     <row r="706">
-      <c r="G706" s="25"/>
+      <c r="G706" s="28"/>
     </row>
     <row r="707">
-      <c r="G707" s="25"/>
+      <c r="G707" s="28"/>
     </row>
     <row r="708">
-      <c r="G708" s="25"/>
+      <c r="G708" s="28"/>
     </row>
     <row r="709">
-      <c r="G709" s="25"/>
+      <c r="G709" s="28"/>
     </row>
     <row r="710">
-      <c r="G710" s="25"/>
+      <c r="G710" s="28"/>
     </row>
     <row r="711">
-      <c r="G711" s="25"/>
+      <c r="G711" s="28"/>
     </row>
     <row r="712">
-      <c r="G712" s="25"/>
+      <c r="G712" s="28"/>
     </row>
     <row r="713">
-      <c r="G713" s="25"/>
+      <c r="G713" s="28"/>
     </row>
     <row r="714">
-      <c r="G714" s="25"/>
+      <c r="G714" s="28"/>
     </row>
     <row r="715">
-      <c r="G715" s="25"/>
+      <c r="G715" s="28"/>
     </row>
     <row r="716">
-      <c r="G716" s="25"/>
+      <c r="G716" s="28"/>
     </row>
     <row r="717">
-      <c r="G717" s="25"/>
+      <c r="G717" s="28"/>
     </row>
     <row r="718">
-      <c r="G718" s="25"/>
+      <c r="G718" s="28"/>
     </row>
     <row r="719">
-      <c r="G719" s="25"/>
+      <c r="G719" s="28"/>
     </row>
     <row r="720">
-      <c r="G720" s="25"/>
+      <c r="G720" s="28"/>
     </row>
     <row r="721">
-      <c r="G721" s="25"/>
+      <c r="G721" s="28"/>
     </row>
     <row r="722">
-      <c r="G722" s="25"/>
+      <c r="G722" s="28"/>
     </row>
     <row r="723">
-      <c r="G723" s="25"/>
+      <c r="G723" s="28"/>
     </row>
     <row r="724">
-      <c r="G724" s="25"/>
+      <c r="G724" s="28"/>
     </row>
     <row r="725">
-      <c r="G725" s="25"/>
+      <c r="G725" s="28"/>
     </row>
     <row r="726">
-      <c r="G726" s="25"/>
+      <c r="G726" s="28"/>
     </row>
     <row r="727">
-      <c r="G727" s="25"/>
+      <c r="G727" s="28"/>
     </row>
     <row r="728">
-      <c r="G728" s="25"/>
+      <c r="G728" s="28"/>
     </row>
     <row r="729">
-      <c r="G729" s="25"/>
+      <c r="G729" s="28"/>
     </row>
     <row r="730">
-      <c r="G730" s="25"/>
+      <c r="G730" s="28"/>
     </row>
     <row r="731">
-      <c r="G731" s="25"/>
+      <c r="G731" s="28"/>
     </row>
     <row r="732">
-      <c r="G732" s="25"/>
+      <c r="G732" s="28"/>
     </row>
     <row r="733">
-      <c r="G733" s="25"/>
+      <c r="G733" s="28"/>
     </row>
     <row r="734">
-      <c r="G734" s="25"/>
+      <c r="G734" s="28"/>
     </row>
     <row r="735">
-      <c r="G735" s="25"/>
+      <c r="G735" s="28"/>
     </row>
     <row r="736">
-      <c r="G736" s="25"/>
+      <c r="G736" s="28"/>
     </row>
     <row r="737">
-      <c r="G737" s="25"/>
+      <c r="G737" s="28"/>
     </row>
     <row r="738">
-      <c r="G738" s="25"/>
+      <c r="G738" s="28"/>
     </row>
     <row r="739">
-      <c r="G739" s="25"/>
+      <c r="G739" s="28"/>
     </row>
     <row r="740">
-      <c r="G740" s="25"/>
+      <c r="G740" s="28"/>
     </row>
     <row r="741">
-      <c r="G741" s="25"/>
+      <c r="G741" s="28"/>
     </row>
     <row r="742">
-      <c r="G742" s="25"/>
+      <c r="G742" s="28"/>
     </row>
     <row r="743">
-      <c r="G743" s="25"/>
+      <c r="G743" s="28"/>
     </row>
     <row r="744">
-      <c r="G744" s="25"/>
+      <c r="G744" s="28"/>
     </row>
     <row r="745">
-      <c r="G745" s="25"/>
+      <c r="G745" s="28"/>
     </row>
     <row r="746">
-      <c r="G746" s="25"/>
+      <c r="G746" s="28"/>
     </row>
     <row r="747">
-      <c r="G747" s="25"/>
+      <c r="G747" s="28"/>
     </row>
     <row r="748">
-      <c r="G748" s="25"/>
+      <c r="G748" s="28"/>
     </row>
     <row r="749">
-      <c r="G749" s="25"/>
+      <c r="G749" s="28"/>
     </row>
     <row r="750">
-      <c r="G750" s="25"/>
+      <c r="G750" s="28"/>
     </row>
     <row r="751">
-      <c r="G751" s="25"/>
+      <c r="G751" s="28"/>
     </row>
     <row r="752">
-      <c r="G752" s="25"/>
+      <c r="G752" s="28"/>
     </row>
     <row r="753">
-      <c r="G753" s="25"/>
+      <c r="G753" s="28"/>
     </row>
     <row r="754">
-      <c r="G754" s="25"/>
+      <c r="G754" s="28"/>
     </row>
     <row r="755">
-      <c r="G755" s="25"/>
+      <c r="G755" s="28"/>
     </row>
     <row r="756">
-      <c r="G756" s="25"/>
+      <c r="G756" s="28"/>
     </row>
     <row r="757">
-      <c r="G757" s="25"/>
+      <c r="G757" s="28"/>
     </row>
     <row r="758">
-      <c r="G758" s="25"/>
+      <c r="G758" s="28"/>
     </row>
     <row r="759">
-      <c r="G759" s="25"/>
+      <c r="G759" s="28"/>
     </row>
     <row r="760">
-      <c r="G760" s="25"/>
+      <c r="G760" s="28"/>
     </row>
     <row r="761">
-      <c r="G761" s="25"/>
+      <c r="G761" s="28"/>
     </row>
     <row r="762">
-      <c r="G762" s="25"/>
+      <c r="G762" s="28"/>
     </row>
     <row r="763">
-      <c r="G763" s="25"/>
+      <c r="G763" s="28"/>
     </row>
     <row r="764">
-      <c r="G764" s="25"/>
+      <c r="G764" s="28"/>
     </row>
     <row r="765">
-      <c r="G765" s="25"/>
+      <c r="G765" s="28"/>
     </row>
     <row r="766">
-      <c r="G766" s="25"/>
+      <c r="G766" s="28"/>
     </row>
     <row r="767">
-      <c r="G767" s="25"/>
+      <c r="G767" s="28"/>
     </row>
     <row r="768">
-      <c r="G768" s="25"/>
+      <c r="G768" s="28"/>
     </row>
     <row r="769">
-      <c r="G769" s="25"/>
+      <c r="G769" s="28"/>
     </row>
     <row r="770">
-      <c r="G770" s="25"/>
+      <c r="G770" s="28"/>
     </row>
     <row r="771">
-      <c r="G771" s="25"/>
+      <c r="G771" s="28"/>
     </row>
     <row r="772">
-      <c r="G772" s="25"/>
+      <c r="G772" s="28"/>
     </row>
     <row r="773">
-      <c r="G773" s="25"/>
+      <c r="G773" s="28"/>
     </row>
     <row r="774">
-      <c r="G774" s="25"/>
+      <c r="G774" s="28"/>
     </row>
     <row r="775">
-      <c r="G775" s="25"/>
+      <c r="G775" s="28"/>
     </row>
     <row r="776">
-      <c r="G776" s="25"/>
+      <c r="G776" s="28"/>
     </row>
     <row r="777">
-      <c r="G777" s="25"/>
+      <c r="G777" s="28"/>
     </row>
     <row r="778">
-      <c r="G778" s="25"/>
+      <c r="G778" s="28"/>
     </row>
     <row r="779">
-      <c r="G779" s="25"/>
+      <c r="G779" s="28"/>
     </row>
     <row r="780">
-      <c r="G780" s="25"/>
+      <c r="G780" s="28"/>
     </row>
     <row r="781">
-      <c r="G781" s="25"/>
+      <c r="G781" s="28"/>
     </row>
     <row r="782">
-      <c r="G782" s="25"/>
+      <c r="G782" s="28"/>
     </row>
     <row r="783">
-      <c r="G783" s="25"/>
+      <c r="G783" s="28"/>
     </row>
     <row r="784">
-      <c r="G784" s="25"/>
+      <c r="G784" s="28"/>
     </row>
     <row r="785">
-      <c r="G785" s="25"/>
+      <c r="G785" s="28"/>
     </row>
     <row r="786">
-      <c r="G786" s="25"/>
+      <c r="G786" s="28"/>
     </row>
     <row r="787">
-      <c r="G787" s="25"/>
+      <c r="G787" s="28"/>
     </row>
     <row r="788">
-      <c r="G788" s="25"/>
+      <c r="G788" s="28"/>
     </row>
     <row r="789">
-      <c r="G789" s="25"/>
+      <c r="G789" s="28"/>
     </row>
     <row r="790">
-      <c r="G790" s="25"/>
+      <c r="G790" s="28"/>
     </row>
     <row r="791">
-      <c r="G791" s="25"/>
+      <c r="G791" s="28"/>
     </row>
     <row r="792">
-      <c r="G792" s="25"/>
+      <c r="G792" s="28"/>
     </row>
     <row r="793">
-      <c r="G793" s="25"/>
+      <c r="G793" s="28"/>
     </row>
     <row r="794">
-      <c r="G794" s="25"/>
+      <c r="G794" s="28"/>
     </row>
     <row r="795">
-      <c r="G795" s="25"/>
+      <c r="G795" s="28"/>
     </row>
     <row r="796">
-      <c r="G796" s="25"/>
+      <c r="G796" s="28"/>
     </row>
     <row r="797">
-      <c r="G797" s="25"/>
+      <c r="G797" s="28"/>
     </row>
     <row r="798">
-      <c r="G798" s="25"/>
+      <c r="G798" s="28"/>
     </row>
     <row r="799">
-      <c r="G799" s="25"/>
+      <c r="G799" s="28"/>
     </row>
     <row r="800">
-      <c r="G800" s="25"/>
+      <c r="G800" s="28"/>
     </row>
     <row r="801">
-      <c r="G801" s="25"/>
+      <c r="G801" s="28"/>
     </row>
     <row r="802">
-      <c r="G802" s="25"/>
+      <c r="G802" s="28"/>
     </row>
     <row r="803">
-      <c r="G803" s="25"/>
+      <c r="G803" s="28"/>
     </row>
     <row r="804">
-      <c r="G804" s="25"/>
+      <c r="G804" s="28"/>
     </row>
     <row r="805">
-      <c r="G805" s="25"/>
+      <c r="G805" s="28"/>
     </row>
     <row r="806">
-      <c r="G806" s="25"/>
+      <c r="G806" s="28"/>
     </row>
     <row r="807">
-      <c r="G807" s="25"/>
+      <c r="G807" s="28"/>
     </row>
     <row r="808">
-      <c r="G808" s="25"/>
+      <c r="G808" s="28"/>
     </row>
     <row r="809">
-      <c r="G809" s="25"/>
+      <c r="G809" s="28"/>
     </row>
     <row r="810">
-      <c r="G810" s="25"/>
+      <c r="G810" s="28"/>
     </row>
     <row r="811">
-      <c r="G811" s="25"/>
+      <c r="G811" s="28"/>
     </row>
     <row r="812">
-      <c r="G812" s="25"/>
+      <c r="G812" s="28"/>
     </row>
     <row r="813">
-      <c r="G813" s="25"/>
+      <c r="G813" s="28"/>
     </row>
     <row r="814">
-      <c r="G814" s="25"/>
+      <c r="G814" s="28"/>
     </row>
     <row r="815">
-      <c r="G815" s="25"/>
+      <c r="G815" s="28"/>
     </row>
     <row r="816">
-      <c r="G816" s="25"/>
+      <c r="G816" s="28"/>
     </row>
     <row r="817">
-      <c r="G817" s="25"/>
+      <c r="G817" s="28"/>
     </row>
     <row r="818">
-      <c r="G818" s="25"/>
+      <c r="G818" s="28"/>
     </row>
     <row r="819">
-      <c r="G819" s="25"/>
+      <c r="G819" s="28"/>
     </row>
     <row r="820">
-      <c r="G820" s="25"/>
+      <c r="G820" s="28"/>
     </row>
     <row r="821">
-      <c r="G821" s="25"/>
+      <c r="G821" s="28"/>
     </row>
     <row r="822">
-      <c r="G822" s="25"/>
+      <c r="G822" s="28"/>
     </row>
     <row r="823">
-      <c r="G823" s="25"/>
+      <c r="G823" s="28"/>
     </row>
     <row r="824">
-      <c r="G824" s="25"/>
+      <c r="G824" s="28"/>
     </row>
     <row r="825">
-      <c r="G825" s="25"/>
+      <c r="G825" s="28"/>
     </row>
     <row r="826">
-      <c r="G826" s="25"/>
+      <c r="G826" s="28"/>
     </row>
     <row r="827">
-      <c r="G827" s="25"/>
+      <c r="G827" s="28"/>
     </row>
     <row r="828">
-      <c r="G828" s="25"/>
+      <c r="G828" s="28"/>
     </row>
     <row r="829">
-      <c r="G829" s="25"/>
+      <c r="G829" s="28"/>
     </row>
     <row r="830">
-      <c r="G830" s="25"/>
+      <c r="G830" s="28"/>
     </row>
     <row r="831">
-      <c r="G831" s="25"/>
+      <c r="G831" s="28"/>
     </row>
     <row r="832">
-      <c r="G832" s="25"/>
+      <c r="G832" s="28"/>
     </row>
     <row r="833">
-      <c r="G833" s="25"/>
+      <c r="G833" s="28"/>
     </row>
     <row r="834">
-      <c r="G834" s="25"/>
+      <c r="G834" s="28"/>
     </row>
     <row r="835">
-      <c r="G835" s="25"/>
+      <c r="G835" s="28"/>
     </row>
     <row r="836">
-      <c r="G836" s="25"/>
+      <c r="G836" s="28"/>
     </row>
     <row r="837">
-      <c r="G837" s="25"/>
+      <c r="G837" s="28"/>
     </row>
     <row r="838">
-      <c r="G838" s="25"/>
+      <c r="G838" s="28"/>
     </row>
     <row r="839">
-      <c r="G839" s="25"/>
+      <c r="G839" s="28"/>
     </row>
     <row r="840">
-      <c r="G840" s="25"/>
+      <c r="G840" s="28"/>
     </row>
     <row r="841">
-      <c r="G841" s="25"/>
+      <c r="G841" s="28"/>
     </row>
     <row r="842">
-      <c r="G842" s="25"/>
+      <c r="G842" s="28"/>
     </row>
     <row r="843">
-      <c r="G843" s="25"/>
+      <c r="G843" s="28"/>
     </row>
     <row r="844">
-      <c r="G844" s="25"/>
+      <c r="G844" s="28"/>
     </row>
     <row r="845">
-      <c r="G845" s="25"/>
+      <c r="G845" s="28"/>
     </row>
     <row r="846">
-      <c r="G846" s="25"/>
+      <c r="G846" s="28"/>
     </row>
     <row r="847">
-      <c r="G847" s="25"/>
+      <c r="G847" s="28"/>
     </row>
     <row r="848">
-      <c r="G848" s="25"/>
+      <c r="G848" s="28"/>
     </row>
     <row r="849">
-      <c r="G849" s="25"/>
+      <c r="G849" s="28"/>
     </row>
     <row r="850">
-      <c r="G850" s="25"/>
+      <c r="G850" s="28"/>
     </row>
     <row r="851">
-      <c r="G851" s="25"/>
+      <c r="G851" s="28"/>
     </row>
     <row r="852">
-      <c r="G852" s="25"/>
+      <c r="G852" s="28"/>
     </row>
     <row r="853">
-      <c r="G853" s="25"/>
+      <c r="G853" s="28"/>
     </row>
     <row r="854">
-      <c r="G854" s="25"/>
+      <c r="G854" s="28"/>
     </row>
     <row r="855">
-      <c r="G855" s="25"/>
+      <c r="G855" s="28"/>
     </row>
     <row r="856">
-      <c r="G856" s="25"/>
+      <c r="G856" s="28"/>
     </row>
     <row r="857">
-      <c r="G857" s="25"/>
+      <c r="G857" s="28"/>
     </row>
     <row r="858">
-      <c r="G858" s="25"/>
+      <c r="G858" s="28"/>
     </row>
     <row r="859">
-      <c r="G859" s="25"/>
+      <c r="G859" s="28"/>
     </row>
     <row r="860">
-      <c r="G860" s="25"/>
+      <c r="G860" s="28"/>
     </row>
     <row r="861">
-      <c r="G861" s="25"/>
+      <c r="G861" s="28"/>
     </row>
     <row r="862">
-      <c r="G862" s="25"/>
+      <c r="G862" s="28"/>
     </row>
     <row r="863">
-      <c r="G863" s="25"/>
+      <c r="G863" s="28"/>
     </row>
     <row r="864">
-      <c r="G864" s="25"/>
+      <c r="G864" s="28"/>
     </row>
     <row r="865">
-      <c r="G865" s="25"/>
+      <c r="G865" s="28"/>
     </row>
     <row r="866">
-      <c r="G866" s="25"/>
+      <c r="G866" s="28"/>
     </row>
     <row r="867">
-      <c r="G867" s="25"/>
+      <c r="G867" s="28"/>
     </row>
     <row r="868">
-      <c r="G868" s="25"/>
+      <c r="G868" s="28"/>
     </row>
     <row r="869">
-      <c r="G869" s="25"/>
+      <c r="G869" s="28"/>
     </row>
     <row r="870">
-      <c r="G870" s="25"/>
+      <c r="G870" s="28"/>
     </row>
     <row r="871">
-      <c r="G871" s="25"/>
+      <c r="G871" s="28"/>
     </row>
     <row r="872">
-      <c r="G872" s="25"/>
+      <c r="G872" s="28"/>
     </row>
     <row r="873">
-      <c r="G873" s="25"/>
+      <c r="G873" s="28"/>
     </row>
     <row r="874">
-      <c r="G874" s="25"/>
+      <c r="G874" s="28"/>
     </row>
     <row r="875">
-      <c r="G875" s="25"/>
+      <c r="G875" s="28"/>
     </row>
     <row r="876">
-      <c r="G876" s="25"/>
+      <c r="G876" s="28"/>
     </row>
     <row r="877">
-      <c r="G877" s="25"/>
+      <c r="G877" s="28"/>
     </row>
     <row r="878">
-      <c r="G878" s="25"/>
+      <c r="G878" s="28"/>
     </row>
     <row r="879">
-      <c r="G879" s="25"/>
+      <c r="G879" s="28"/>
     </row>
     <row r="880">
-      <c r="G880" s="25"/>
+      <c r="G880" s="28"/>
     </row>
     <row r="881">
-      <c r="G881" s="25"/>
+      <c r="G881" s="28"/>
     </row>
     <row r="882">
-      <c r="G882" s="25"/>
+      <c r="G882" s="28"/>
     </row>
     <row r="883">
-      <c r="G883" s="25"/>
+      <c r="G883" s="28"/>
     </row>
     <row r="884">
-      <c r="G884" s="25"/>
+      <c r="G884" s="28"/>
     </row>
     <row r="885">
-      <c r="G885" s="25"/>
+      <c r="G885" s="28"/>
     </row>
     <row r="886">
-      <c r="G886" s="25"/>
+      <c r="G886" s="28"/>
     </row>
     <row r="887">
-      <c r="G887" s="25"/>
+      <c r="G887" s="28"/>
     </row>
     <row r="888">
-      <c r="G888" s="25"/>
+      <c r="G888" s="28"/>
     </row>
     <row r="889">
-      <c r="G889" s="25"/>
+      <c r="G889" s="28"/>
     </row>
     <row r="890">
-      <c r="G890" s="25"/>
+      <c r="G890" s="28"/>
     </row>
     <row r="891">
-      <c r="G891" s="25"/>
+      <c r="G891" s="28"/>
     </row>
     <row r="892">
-      <c r="G892" s="25"/>
+      <c r="G892" s="28"/>
     </row>
     <row r="893">
-      <c r="G893" s="25"/>
+      <c r="G893" s="28"/>
     </row>
     <row r="894">
-      <c r="G894" s="25"/>
+      <c r="G894" s="28"/>
     </row>
     <row r="895">
-      <c r="G895" s="25"/>
+      <c r="G895" s="28"/>
     </row>
     <row r="896">
-      <c r="G896" s="25"/>
+      <c r="G896" s="28"/>
     </row>
     <row r="897">
-      <c r="G897" s="25"/>
+      <c r="G897" s="28"/>
     </row>
     <row r="898">
-      <c r="G898" s="25"/>
+      <c r="G898" s="28"/>
     </row>
     <row r="899">
-      <c r="G899" s="25"/>
+      <c r="G899" s="28"/>
     </row>
     <row r="900">
-      <c r="G900" s="25"/>
+      <c r="G900" s="28"/>
     </row>
     <row r="901">
-      <c r="G901" s="25"/>
+      <c r="G901" s="28"/>
     </row>
     <row r="902">
-      <c r="G902" s="25"/>
+      <c r="G902" s="28"/>
     </row>
     <row r="903">
-      <c r="G903" s="25"/>
+      <c r="G903" s="28"/>
     </row>
     <row r="904">
-      <c r="G904" s="25"/>
+      <c r="G904" s="28"/>
     </row>
     <row r="905">
-      <c r="G905" s="25"/>
+      <c r="G905" s="28"/>
     </row>
     <row r="906">
-      <c r="G906" s="25"/>
+      <c r="G906" s="28"/>
     </row>
     <row r="907">
-      <c r="G907" s="25"/>
+      <c r="G907" s="28"/>
     </row>
     <row r="908">
-      <c r="G908" s="25"/>
+      <c r="G908" s="28"/>
     </row>
     <row r="909">
-      <c r="G909" s="25"/>
+      <c r="G909" s="28"/>
     </row>
     <row r="910">
-      <c r="G910" s="25"/>
+      <c r="G910" s="28"/>
     </row>
     <row r="911">
-      <c r="G911" s="25"/>
+      <c r="G911" s="28"/>
     </row>
     <row r="912">
-      <c r="G912" s="25"/>
+      <c r="G912" s="28"/>
     </row>
     <row r="913">
-      <c r="G913" s="25"/>
+      <c r="G913" s="28"/>
     </row>
     <row r="914">
-      <c r="G914" s="25"/>
+      <c r="G914" s="28"/>
     </row>
     <row r="915">
-      <c r="G915" s="25"/>
+      <c r="G915" s="28"/>
     </row>
     <row r="916">
-      <c r="G916" s="25"/>
+      <c r="G916" s="28"/>
     </row>
     <row r="917">
-      <c r="G917" s="25"/>
+      <c r="G917" s="28"/>
     </row>
     <row r="918">
-      <c r="G918" s="25"/>
+      <c r="G918" s="28"/>
     </row>
     <row r="919">
-      <c r="G919" s="25"/>
+      <c r="G919" s="28"/>
     </row>
     <row r="920">
-      <c r="G920" s="25"/>
+      <c r="G920" s="28"/>
     </row>
     <row r="921">
-      <c r="G921" s="25"/>
+      <c r="G921" s="28"/>
     </row>
     <row r="922">
-      <c r="G922" s="25"/>
+      <c r="G922" s="28"/>
     </row>
     <row r="923">
-      <c r="G923" s="25"/>
+      <c r="G923" s="28"/>
     </row>
     <row r="924">
-      <c r="G924" s="25"/>
+      <c r="G924" s="28"/>
     </row>
     <row r="925">
-      <c r="G925" s="25"/>
+      <c r="G925" s="28"/>
     </row>
     <row r="926">
-      <c r="G926" s="25"/>
+      <c r="G926" s="28"/>
     </row>
     <row r="927">
-      <c r="G927" s="25"/>
+      <c r="G927" s="28"/>
     </row>
     <row r="928">
-      <c r="G928" s="25"/>
+      <c r="G928" s="28"/>
     </row>
     <row r="929">
-      <c r="G929" s="25"/>
+      <c r="G929" s="28"/>
     </row>
     <row r="930">
-      <c r="G930" s="25"/>
+      <c r="G930" s="28"/>
     </row>
     <row r="931">
-      <c r="G931" s="25"/>
+      <c r="G931" s="28"/>
     </row>
     <row r="932">
-      <c r="G932" s="25"/>
+      <c r="G932" s="28"/>
     </row>
     <row r="933">
-      <c r="G933" s="25"/>
+      <c r="G933" s="28"/>
     </row>
     <row r="934">
-      <c r="G934" s="25"/>
+      <c r="G934" s="28"/>
     </row>
     <row r="935">
-      <c r="G935" s="25"/>
+      <c r="G935" s="28"/>
     </row>
     <row r="936">
-      <c r="G936" s="25"/>
+      <c r="G936" s="28"/>
     </row>
     <row r="937">
-      <c r="G937" s="25"/>
+      <c r="G937" s="28"/>
     </row>
     <row r="938">
-      <c r="G938" s="25"/>
+      <c r="G938" s="28"/>
     </row>
     <row r="939">
-      <c r="G939" s="25"/>
+      <c r="G939" s="28"/>
     </row>
     <row r="940">
-      <c r="G940" s="25"/>
+      <c r="G940" s="28"/>
     </row>
     <row r="941">
-      <c r="G941" s="25"/>
+      <c r="G941" s="28"/>
     </row>
     <row r="942">
-      <c r="G942" s="25"/>
+      <c r="G942" s="28"/>
     </row>
     <row r="943">
-      <c r="G943" s="25"/>
+      <c r="G943" s="28"/>
     </row>
     <row r="944">
-      <c r="G944" s="25"/>
+      <c r="G944" s="28"/>
     </row>
     <row r="945">
-      <c r="G945" s="25"/>
+      <c r="G945" s="28"/>
     </row>
     <row r="946">
-      <c r="G946" s="25"/>
+      <c r="G946" s="28"/>
     </row>
     <row r="947">
-      <c r="G947" s="25"/>
+      <c r="G947" s="28"/>
     </row>
     <row r="948">
-      <c r="G948" s="25"/>
+      <c r="G948" s="28"/>
     </row>
     <row r="949">
-      <c r="G949" s="25"/>
+      <c r="G949" s="28"/>
     </row>
     <row r="950">
-      <c r="G950" s="25"/>
+      <c r="G950" s="28"/>
     </row>
     <row r="951">
-      <c r="G951" s="25"/>
+      <c r="G951" s="28"/>
     </row>
     <row r="952">
-      <c r="G952" s="25"/>
+      <c r="G952" s="28"/>
     </row>
     <row r="953">
-      <c r="G953" s="25"/>
+      <c r="G953" s="28"/>
     </row>
     <row r="954">
-      <c r="G954" s="25"/>
+      <c r="G954" s="28"/>
     </row>
     <row r="955">
-      <c r="G955" s="25"/>
+      <c r="G955" s="28"/>
     </row>
     <row r="956">
-      <c r="G956" s="25"/>
+      <c r="G956" s="28"/>
     </row>
     <row r="957">
-      <c r="G957" s="25"/>
+      <c r="G957" s="28"/>
     </row>
     <row r="958">
-      <c r="G958" s="25"/>
+      <c r="G958" s="28"/>
     </row>
     <row r="959">
-      <c r="G959" s="25"/>
+      <c r="G959" s="28"/>
     </row>
     <row r="960">
-      <c r="G960" s="25"/>
+      <c r="G960" s="28"/>
     </row>
     <row r="961">
-      <c r="G961" s="25"/>
+      <c r="G961" s="28"/>
     </row>
     <row r="962">
-      <c r="G962" s="25"/>
+      <c r="G962" s="28"/>
     </row>
     <row r="963">
-      <c r="G963" s="25"/>
+      <c r="G963" s="28"/>
     </row>
     <row r="964">
-      <c r="G964" s="25"/>
+      <c r="G964" s="28"/>
     </row>
     <row r="965">
-      <c r="G965" s="25"/>
+      <c r="G965" s="28"/>
     </row>
     <row r="966">
-      <c r="G966" s="25"/>
+      <c r="G966" s="28"/>
     </row>
     <row r="967">
-      <c r="G967" s="25"/>
+      <c r="G967" s="28"/>
     </row>
     <row r="968">
-      <c r="G968" s="25"/>
+      <c r="G968" s="28"/>
     </row>
     <row r="969">
-      <c r="G969" s="25"/>
+      <c r="G969" s="28"/>
     </row>
     <row r="970">
-      <c r="G970" s="25"/>
+      <c r="G970" s="28"/>
     </row>
     <row r="971">
-      <c r="G971" s="25"/>
+      <c r="G971" s="28"/>
     </row>
     <row r="972">
-      <c r="G972" s="25"/>
+      <c r="G972" s="28"/>
     </row>
     <row r="973">
-      <c r="G973" s="25"/>
+      <c r="G973" s="28"/>
     </row>
     <row r="974">
-      <c r="G974" s="25"/>
+      <c r="G974" s="28"/>
     </row>
     <row r="975">
-      <c r="G975" s="25"/>
+      <c r="G975" s="28"/>
     </row>
     <row r="976">
-      <c r="G976" s="25"/>
+      <c r="G976" s="28"/>
     </row>
     <row r="977">
-      <c r="G977" s="25"/>
+      <c r="G977" s="28"/>
     </row>
     <row r="978">
-      <c r="G978" s="25"/>
+      <c r="G978" s="28"/>
     </row>
     <row r="979">
-      <c r="G979" s="25"/>
+      <c r="G979" s="28"/>
     </row>
     <row r="980">
-      <c r="G980" s="25"/>
+      <c r="G980" s="28"/>
     </row>
     <row r="981">
-      <c r="G981" s="25"/>
+      <c r="G981" s="28"/>
     </row>
     <row r="982">
-      <c r="G982" s="25"/>
+      <c r="G982" s="28"/>
     </row>
     <row r="983">
-      <c r="G983" s="25"/>
+      <c r="G983" s="28"/>
     </row>
     <row r="984">
-      <c r="G984" s="25"/>
+      <c r="G984" s="28"/>
     </row>
     <row r="985">
-      <c r="G985" s="25"/>
+      <c r="G985" s="28"/>
     </row>
     <row r="986">
-      <c r="G986" s="25"/>
+      <c r="G986" s="28"/>
     </row>
     <row r="987">
-      <c r="G987" s="25"/>
+      <c r="G987" s="28"/>
     </row>
     <row r="988">
-      <c r="G988" s="25"/>
+      <c r="G988" s="28"/>
     </row>
     <row r="989">
-      <c r="G989" s="25"/>
+      <c r="G989" s="28"/>
     </row>
     <row r="990">
-      <c r="G990" s="25"/>
+      <c r="G990" s="28"/>
     </row>
     <row r="991">
-      <c r="G991" s="25"/>
-    </row>
-    <row r="992">
-      <c r="G992" s="25"/>
-    </row>
-    <row r="993">
-      <c r="G993" s="25"/>
+      <c r="G991" s="28"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -33655,7 +33542,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -33669,10 +33556,10 @@
         <v>180</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -33686,7 +33573,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>159</v>
@@ -33703,7 +33590,7 @@
         <v>180</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>160</v>
@@ -33720,10 +33607,10 @@
         <v>180</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -33737,10 +33624,10 @@
         <v>180</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -33754,10 +33641,10 @@
         <v>181</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -33771,7 +33658,7 @@
         <v>180</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
@@ -33788,10 +33675,10 @@
         <v>180</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -33805,10 +33692,10 @@
         <v>180</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -33822,7 +33709,7 @@
         <v>180</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>164</v>
@@ -33839,7 +33726,7 @@
         <v>180</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>165</v>
@@ -33856,7 +33743,7 @@
         <v>182</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>183</v>
@@ -33873,7 +33760,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>185</v>
@@ -33890,10 +33777,10 @@
         <v>180</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -33907,232 +33794,232 @@
         <v>180</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="27">
+      <c r="A21" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="30">
         <v>45814.0</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="29">
         <v>11.29</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="29">
         <v>11.22</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="29">
         <v>11.22</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="29">
         <v>35.3</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="29">
         <v>29.3</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="29">
         <v>1022.19</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="32">
         <f t="shared" ref="J21:J26" si="1">D21/(1-I21/1000/2.94)</f>
         <v>17.30755393</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="32">
         <f t="shared" ref="K21:K26" si="2">E21/(1-I21/1000/2.94)</f>
         <v>17.20024403</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29">
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32">
         <f t="shared" ref="P21:P26" si="3">F21/(1-I21/1000/2.94)</f>
         <v>17.20024403</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="27">
+      <c r="A22" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="30">
         <v>45814.0</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="29">
         <v>7.68</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="29">
         <v>7.72</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="29">
         <v>7.77</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="29">
         <v>35.3</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="29">
         <v>29.3</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="29">
         <v>1022.19</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="32">
         <f t="shared" si="1"/>
         <v>11.77342907</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="32">
         <f t="shared" si="2"/>
         <v>11.83474901</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29">
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32">
         <f t="shared" si="3"/>
         <v>11.91139894</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="30">
         <v>45814.0</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="29">
         <v>8.9</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="29">
         <v>8.78</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="29">
         <v>8.86</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="29">
         <v>35.3</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="29">
         <v>29.3</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="29">
         <v>1022.19</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="32">
         <f t="shared" si="1"/>
         <v>13.64368733</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="32">
         <f t="shared" si="2"/>
         <v>13.4597275</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29">
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32">
         <f t="shared" si="3"/>
         <v>13.58236739</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="30">
         <v>45814.0</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="29">
         <v>10.0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="29">
         <v>10.08</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="29">
         <v>9.88</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="29">
         <v>35.3</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="29">
         <v>29.3</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="29">
         <v>1022.19</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="32">
         <f t="shared" si="1"/>
         <v>15.32998577</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="32">
         <f t="shared" si="2"/>
         <v>15.45262565</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29">
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32">
         <f t="shared" si="3"/>
         <v>15.14602594</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
